--- a/datasets/diseño.xlsx
+++ b/datasets/diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{34BD950A-34E8-43B3-895A-3A3A3D546100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B2ADBB-9618-4935-A090-114CD60F7280}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{34BD950A-34E8-43B3-895A-3A3A3D546100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD56AF9-DCE1-4AE0-99B7-639B4CB2988B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C4F3EC66-203E-4656-A2C3-CF63328D98E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19003" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19007" uniqueCount="2395">
   <si>
     <t>Fecha</t>
   </si>
@@ -7215,6 +7215,9 @@
   </si>
   <si>
     <t>Casa S.O.</t>
+  </si>
+  <si>
+    <t>Casa Florencia</t>
   </si>
 </sst>
 </file>
@@ -8113,8 +8116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59676341-22B9-4438-8C8A-0AD3100A88A4}">
   <dimension ref="A1:R1888"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1857" workbookViewId="0">
-      <selection activeCell="C1870" sqref="C1870"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1856" workbookViewId="0">
+      <selection activeCell="A1884" sqref="A1884:R1888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -94169,10 +94172,10 @@
     </row>
     <row r="1727" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1727" s="1">
-        <v>45453</v>
+        <v>45457</v>
       </c>
       <c r="B1727" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1727" t="s">
         <v>2123</v>
@@ -94181,42 +94184,42 @@
         <v>24</v>
       </c>
       <c r="E1727">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1727" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="G1727">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1727" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1727" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1727" t="s">
         <v>23</v>
       </c>
       <c r="L1727">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1727">
-        <v>40.630000000000003</v>
+        <v>20</v>
       </c>
       <c r="O1727" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1727" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1728" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1728" s="1">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1728" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1728" t="s">
         <v>2123</v>
@@ -94228,7 +94231,7 @@
         <v>2</v>
       </c>
       <c r="F1728" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="G1728">
         <v>2960</v>
@@ -94257,10 +94260,10 @@
     </row>
     <row r="1729" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1729" s="1">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B1729" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1729" t="s">
         <v>2123</v>
@@ -94272,7 +94275,7 @@
         <v>2</v>
       </c>
       <c r="F1729" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="G1729">
         <v>2960</v>
@@ -94301,10 +94304,10 @@
     </row>
     <row r="1730" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1730" s="1">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1730" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1730" t="s">
         <v>2123</v>
@@ -94316,7 +94319,7 @@
         <v>2</v>
       </c>
       <c r="F1730" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="G1730">
         <v>2960</v>
@@ -94345,10 +94348,10 @@
     </row>
     <row r="1731" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1731" s="1">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B1731" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C1731" t="s">
         <v>2123</v>
@@ -94357,42 +94360,42 @@
         <v>24</v>
       </c>
       <c r="E1731">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1731" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="G1731">
-        <v>2960</v>
+        <v>2380</v>
       </c>
       <c r="H1731" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1731" t="s">
-        <v>44</v>
+        <v>991</v>
       </c>
       <c r="K1731" t="s">
         <v>23</v>
       </c>
       <c r="L1731">
-        <v>156.32</v>
+        <v>455.7</v>
       </c>
       <c r="M1731">
-        <v>20</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O1731" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1731" t="s">
-        <v>2226</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1732" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1732" s="1">
-        <v>45453</v>
+        <v>45457</v>
       </c>
       <c r="B1732" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1732" t="s">
         <v>2123</v>
@@ -94401,34 +94404,34 @@
         <v>24</v>
       </c>
       <c r="E1732">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1732" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="G1732">
-        <v>2380</v>
+        <v>2937</v>
       </c>
       <c r="H1732" t="s">
         <v>32</v>
       </c>
       <c r="I1732" t="s">
-        <v>991</v>
+        <v>85</v>
       </c>
       <c r="K1732" t="s">
         <v>23</v>
       </c>
       <c r="L1732">
-        <v>455.7</v>
+        <v>0</v>
       </c>
       <c r="M1732">
-        <v>9.6300000000000008</v>
+        <v>14</v>
       </c>
       <c r="O1732" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1732" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1733" spans="1:18" x14ac:dyDescent="0.45">
@@ -94448,39 +94451,39 @@
         <v>1</v>
       </c>
       <c r="F1733" t="s">
-        <v>2233</v>
+        <v>2238</v>
       </c>
       <c r="G1733">
-        <v>2776</v>
+        <v>2651</v>
       </c>
       <c r="H1733" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1733" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="K1733" t="s">
         <v>23</v>
       </c>
       <c r="L1733">
-        <v>74.75</v>
+        <v>0</v>
       </c>
       <c r="M1733">
-        <v>18</v>
+        <v>21.4</v>
       </c>
       <c r="O1733" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1733" t="s">
-        <v>1412</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1734" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1734" s="1">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B1734" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1734" t="s">
         <v>2123</v>
@@ -94489,42 +94492,42 @@
         <v>24</v>
       </c>
       <c r="E1734">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1734" t="s">
-        <v>2234</v>
-      </c>
-      <c r="G1734" t="s">
-        <v>22</v>
+        <v>2240</v>
+      </c>
+      <c r="G1734">
+        <v>2651</v>
       </c>
       <c r="H1734" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1734" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="K1734" t="s">
         <v>23</v>
       </c>
-      <c r="L1734" t="s">
-        <v>22</v>
+      <c r="L1734">
+        <v>0</v>
       </c>
       <c r="M1734">
-        <v>1</v>
+        <v>21.4</v>
       </c>
       <c r="O1734" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R1734" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1735" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1735" s="1">
-        <v>45457</v>
+        <v>45454</v>
       </c>
       <c r="B1735" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1735" t="s">
         <v>2123</v>
@@ -94536,16 +94539,16 @@
         <v>1</v>
       </c>
       <c r="F1735" t="s">
-        <v>2236</v>
-      </c>
-      <c r="G1735">
-        <v>2937</v>
+        <v>2244</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>2242</v>
       </c>
       <c r="H1735" t="s">
         <v>32</v>
       </c>
       <c r="I1735" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K1735" t="s">
         <v>23</v>
@@ -94554,21 +94557,21 @@
         <v>0</v>
       </c>
       <c r="M1735">
-        <v>14</v>
+        <v>50.62</v>
       </c>
       <c r="O1735" t="s">
         <v>60</v>
       </c>
       <c r="R1735" t="s">
-        <v>2237</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1736" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1736" s="1">
-        <v>45456</v>
+        <v>45453</v>
       </c>
       <c r="B1736" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1736" t="s">
         <v>2123</v>
@@ -94577,19 +94580,19 @@
         <v>24</v>
       </c>
       <c r="E1736">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1736" t="s">
-        <v>2238</v>
-      </c>
-      <c r="G1736">
-        <v>2651</v>
+        <v>2245</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>2242</v>
       </c>
       <c r="H1736" t="s">
         <v>32</v>
       </c>
       <c r="I1736" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K1736" t="s">
         <v>23</v>
@@ -94598,21 +94601,21 @@
         <v>0</v>
       </c>
       <c r="M1736">
-        <v>21.4</v>
+        <v>50.62</v>
       </c>
       <c r="O1736" t="s">
         <v>60</v>
       </c>
       <c r="R1736" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1737" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1737" s="1">
-        <v>45455</v>
+        <v>45453</v>
       </c>
       <c r="B1737" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1737" t="s">
         <v>2123</v>
@@ -94624,39 +94627,39 @@
         <v>1</v>
       </c>
       <c r="F1737" t="s">
-        <v>2240</v>
+        <v>2251</v>
       </c>
       <c r="G1737">
-        <v>2651</v>
+        <v>2938</v>
       </c>
       <c r="H1737" t="s">
         <v>32</v>
       </c>
       <c r="I1737" t="s">
-        <v>85</v>
+        <v>2249</v>
       </c>
       <c r="K1737" t="s">
-        <v>23</v>
+        <v>2250</v>
       </c>
       <c r="L1737">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="M1737">
-        <v>21.4</v>
+        <v>2.38</v>
       </c>
       <c r="O1737" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R1737" t="s">
-        <v>2239</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1738" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1738" s="1">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1738" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1738" t="s">
         <v>2123</v>
@@ -94668,16 +94671,16 @@
         <v>1</v>
       </c>
       <c r="F1738" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G1738" t="s">
-        <v>2242</v>
+        <v>2252</v>
+      </c>
+      <c r="G1738">
+        <v>2431</v>
       </c>
       <c r="H1738" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1738" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1738" t="s">
         <v>23</v>
@@ -94686,21 +94689,21 @@
         <v>0</v>
       </c>
       <c r="M1738">
-        <v>50.62</v>
+        <v>38.22</v>
       </c>
       <c r="O1738" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1738" t="s">
-        <v>2243</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1739" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1739" s="1">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B1739" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1739" t="s">
         <v>2123</v>
@@ -94712,16 +94715,16 @@
         <v>1</v>
       </c>
       <c r="F1739" t="s">
-        <v>2244</v>
-      </c>
-      <c r="G1739" t="s">
-        <v>2242</v>
+        <v>2254</v>
+      </c>
+      <c r="G1739">
+        <v>2431</v>
       </c>
       <c r="H1739" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1739" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1739" t="s">
         <v>23</v>
@@ -94730,21 +94733,21 @@
         <v>0</v>
       </c>
       <c r="M1739">
-        <v>50.62</v>
+        <v>38.22</v>
       </c>
       <c r="O1739" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1739" t="s">
-        <v>2243</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1740" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1740" s="1">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B1740" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1740" t="s">
         <v>2123</v>
@@ -94753,19 +94756,19 @@
         <v>24</v>
       </c>
       <c r="E1740">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1740" t="s">
-        <v>2245</v>
-      </c>
-      <c r="G1740" t="s">
-        <v>2242</v>
+        <v>2255</v>
+      </c>
+      <c r="G1740">
+        <v>2431</v>
       </c>
       <c r="H1740" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1740" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1740" t="s">
         <v>23</v>
@@ -94774,13 +94777,13 @@
         <v>0</v>
       </c>
       <c r="M1740">
-        <v>50.62</v>
+        <v>38.22</v>
       </c>
       <c r="O1740" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1740" t="s">
-        <v>2243</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1741" spans="1:18" x14ac:dyDescent="0.45">
@@ -94800,31 +94803,31 @@
         <v>1</v>
       </c>
       <c r="F1741" t="s">
-        <v>2248</v>
+        <v>2258</v>
       </c>
       <c r="G1741">
-        <v>2938</v>
+        <v>1090</v>
       </c>
       <c r="H1741" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1741" t="s">
-        <v>2249</v>
+        <v>44</v>
       </c>
       <c r="K1741" t="s">
-        <v>2250</v>
+        <v>23</v>
       </c>
       <c r="L1741">
-        <v>2.38</v>
+        <v>116.78</v>
       </c>
       <c r="M1741">
-        <v>2.38</v>
+        <v>29.1</v>
       </c>
       <c r="O1741" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1741" t="s">
-        <v>1466</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1742" spans="1:18" x14ac:dyDescent="0.45">
@@ -94844,60 +94847,60 @@
         <v>1</v>
       </c>
       <c r="F1742" t="s">
-        <v>2251</v>
+        <v>2259</v>
       </c>
       <c r="G1742">
-        <v>2938</v>
+        <v>1090</v>
       </c>
       <c r="H1742" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1742" t="s">
-        <v>2249</v>
+        <v>44</v>
       </c>
       <c r="K1742" t="s">
-        <v>2250</v>
+        <v>23</v>
       </c>
       <c r="L1742">
-        <v>2.38</v>
+        <v>116.78</v>
       </c>
       <c r="M1742">
-        <v>2.38</v>
+        <v>29.1</v>
       </c>
       <c r="O1742" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1742" t="s">
-        <v>1466</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1743" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1743" s="1">
-        <v>45456</v>
+        <v>45444</v>
       </c>
       <c r="B1743" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C1743" t="s">
         <v>2123</v>
       </c>
       <c r="D1743">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1743" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G1743">
-        <v>2431</v>
+        <v>2260</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>2242</v>
       </c>
       <c r="H1743" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1743" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1743" t="s">
         <v>23</v>
@@ -94906,42 +94909,45 @@
         <v>0</v>
       </c>
       <c r="M1743">
-        <v>38.22</v>
+        <v>40.630000000000003</v>
+      </c>
+      <c r="N1743">
+        <v>40.630000000000003</v>
       </c>
       <c r="O1743" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="R1743" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1744" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1744" s="1">
-        <v>45457</v>
+        <v>45444</v>
       </c>
       <c r="B1744" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C1744" t="s">
         <v>2123</v>
       </c>
       <c r="D1744">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1744">
         <v>1</v>
       </c>
       <c r="F1744" t="s">
-        <v>2254</v>
-      </c>
-      <c r="G1744">
-        <v>2431</v>
+        <v>2262</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>2242</v>
       </c>
       <c r="H1744" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1744" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1744" t="s">
         <v>23</v>
@@ -94950,39 +94956,42 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>38.22</v>
+        <v>50.62</v>
+      </c>
+      <c r="N1744">
+        <v>50.62</v>
       </c>
       <c r="O1744" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R1744" t="s">
-        <v>2253</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1745" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1745" s="1">
-        <v>45455</v>
+        <v>45447</v>
       </c>
       <c r="B1745" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1745" t="s">
         <v>2123</v>
       </c>
       <c r="D1745">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1745">
         <v>1</v>
       </c>
       <c r="F1745" t="s">
-        <v>2255</v>
+        <v>2264</v>
       </c>
       <c r="G1745">
         <v>2431</v>
       </c>
       <c r="H1745" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1745" t="s">
         <v>58</v>
@@ -94994,83 +95003,83 @@
         <v>0</v>
       </c>
       <c r="M1745">
-        <v>38.22</v>
+        <v>33</v>
       </c>
       <c r="O1745" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="R1745" t="s">
-        <v>2253</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1746" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1746" s="1">
-        <v>45454</v>
+        <v>45450</v>
       </c>
       <c r="B1746" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1746" t="s">
         <v>2123</v>
       </c>
       <c r="D1746">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1746">
         <v>1</v>
       </c>
       <c r="F1746" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="G1746">
-        <v>1090</v>
+        <v>2776</v>
       </c>
       <c r="H1746" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1746" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K1746" t="s">
         <v>23</v>
       </c>
       <c r="L1746">
-        <v>116.78</v>
+        <v>74.75</v>
       </c>
       <c r="M1746">
-        <v>29.1</v>
+        <v>18.45</v>
       </c>
       <c r="O1746" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1746" t="s">
-        <v>2257</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1747" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1747" s="1">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B1747" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1747" t="s">
         <v>2123</v>
       </c>
       <c r="D1747">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1747">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1747" t="s">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="G1747">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1747" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1747" t="s">
         <v>44</v>
@@ -95079,42 +95088,45 @@
         <v>23</v>
       </c>
       <c r="L1747">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1747">
-        <v>29.1</v>
+        <v>24.22</v>
+      </c>
+      <c r="N1747">
+        <v>24.22</v>
       </c>
       <c r="O1747" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1747" t="s">
-        <v>2257</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1748" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1748" s="1">
-        <v>45444</v>
+        <v>45450</v>
       </c>
       <c r="B1748" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C1748" t="s">
         <v>2123</v>
       </c>
       <c r="D1748">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1748">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1748" t="s">
-        <v>2260</v>
-      </c>
-      <c r="G1748" t="s">
-        <v>2242</v>
+        <v>2268</v>
+      </c>
+      <c r="G1748">
+        <v>2960</v>
       </c>
       <c r="H1748" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1748" t="s">
         <v>44</v>
@@ -95123,45 +95135,42 @@
         <v>23</v>
       </c>
       <c r="L1748">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1748">
-        <v>40.630000000000003</v>
-      </c>
-      <c r="N1748">
-        <v>40.630000000000003</v>
+        <v>24.22</v>
       </c>
       <c r="O1748" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="R1748" t="s">
-        <v>2261</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1749" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1749" s="1">
-        <v>45444</v>
+        <v>45449</v>
       </c>
       <c r="B1749" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C1749" t="s">
         <v>2123</v>
       </c>
       <c r="D1749">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1749">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1749" t="s">
-        <v>2262</v>
-      </c>
-      <c r="G1749" t="s">
-        <v>2242</v>
+        <v>2269</v>
+      </c>
+      <c r="G1749">
+        <v>2960</v>
       </c>
       <c r="H1749" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1749" t="s">
         <v>44</v>
@@ -95170,27 +95179,24 @@
         <v>23</v>
       </c>
       <c r="L1749">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1749">
-        <v>50.62</v>
-      </c>
-      <c r="N1749">
-        <v>50.62</v>
+        <v>24.22</v>
       </c>
       <c r="O1749" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R1749" t="s">
-        <v>2263</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1750" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1750" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B1750" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1750" t="s">
         <v>2123</v>
@@ -95199,42 +95205,42 @@
         <v>23</v>
       </c>
       <c r="E1750">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1750" t="s">
-        <v>2264</v>
+        <v>2270</v>
       </c>
       <c r="G1750">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1750" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1750" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1750" t="s">
         <v>23</v>
       </c>
       <c r="L1750">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1750">
-        <v>33</v>
+        <v>24.22</v>
       </c>
       <c r="O1750" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="R1750" t="s">
-        <v>2265</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1751" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1751" s="1">
-        <v>45450</v>
+        <v>45447</v>
       </c>
       <c r="B1751" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1751" t="s">
         <v>2123</v>
@@ -95243,42 +95249,42 @@
         <v>23</v>
       </c>
       <c r="E1751">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1751" t="s">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="G1751">
-        <v>2776</v>
+        <v>2960</v>
       </c>
       <c r="H1751" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1751" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K1751" t="s">
         <v>23</v>
       </c>
       <c r="L1751">
-        <v>74.75</v>
+        <v>156.32</v>
       </c>
       <c r="M1751">
-        <v>18.45</v>
+        <v>24.22</v>
       </c>
       <c r="O1751" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1751" t="s">
-        <v>1412</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1752" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1752" s="1">
-        <v>45450</v>
+        <v>45446</v>
       </c>
       <c r="B1752" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1752" t="s">
         <v>2123</v>
@@ -95290,13 +95296,13 @@
         <v>3</v>
       </c>
       <c r="F1752" t="s">
-        <v>2267</v>
+        <v>2272</v>
       </c>
       <c r="G1752">
         <v>2960</v>
       </c>
       <c r="H1752" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1752" t="s">
         <v>44</v>
@@ -95308,9 +95314,6 @@
         <v>156.32</v>
       </c>
       <c r="M1752">
-        <v>24.22</v>
-      </c>
-      <c r="N1752">
         <v>24.22</v>
       </c>
       <c r="O1752" t="s">
@@ -95334,16 +95337,16 @@
         <v>23</v>
       </c>
       <c r="E1753">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1753" t="s">
-        <v>2268</v>
+        <v>2273</v>
       </c>
       <c r="G1753">
         <v>2960</v>
       </c>
       <c r="H1753" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1753" t="s">
         <v>44</v>
@@ -95355,21 +95358,24 @@
         <v>156.32</v>
       </c>
       <c r="M1753">
-        <v>24.22</v>
+        <v>23.72</v>
+      </c>
+      <c r="N1753">
+        <v>23.72</v>
       </c>
       <c r="O1753" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1753" t="s">
-        <v>1478</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1754" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1754" s="1">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B1754" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1754" t="s">
         <v>2123</v>
@@ -95378,10 +95384,10 @@
         <v>23</v>
       </c>
       <c r="E1754">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1754" t="s">
-        <v>2269</v>
+        <v>2274</v>
       </c>
       <c r="G1754">
         <v>2960</v>
@@ -95399,21 +95405,21 @@
         <v>156.32</v>
       </c>
       <c r="M1754">
-        <v>24.22</v>
+        <v>23.72</v>
       </c>
       <c r="O1754" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1754" t="s">
-        <v>1478</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1755" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1755" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B1755" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1755" t="s">
         <v>2123</v>
@@ -95422,10 +95428,10 @@
         <v>23</v>
       </c>
       <c r="E1755">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1755" t="s">
-        <v>2270</v>
+        <v>2275</v>
       </c>
       <c r="G1755">
         <v>2960</v>
@@ -95443,21 +95449,21 @@
         <v>156.32</v>
       </c>
       <c r="M1755">
-        <v>24.22</v>
+        <v>23.72</v>
       </c>
       <c r="O1755" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1755" t="s">
-        <v>1478</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1756" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1756" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B1756" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1756" t="s">
         <v>2123</v>
@@ -95469,7 +95475,7 @@
         <v>3</v>
       </c>
       <c r="F1756" t="s">
-        <v>2271</v>
+        <v>2276</v>
       </c>
       <c r="G1756">
         <v>2960</v>
@@ -95487,21 +95493,21 @@
         <v>156.32</v>
       </c>
       <c r="M1756">
-        <v>24.22</v>
+        <v>23.72</v>
       </c>
       <c r="O1756" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1756" t="s">
-        <v>1478</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1757" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1757" s="1">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="B1757" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1757" t="s">
         <v>2123</v>
@@ -95510,42 +95516,45 @@
         <v>23</v>
       </c>
       <c r="E1757">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1757" t="s">
-        <v>2272</v>
-      </c>
-      <c r="G1757">
-        <v>2960</v>
+        <v>2277</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>22</v>
       </c>
       <c r="H1757" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1757" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1757" t="s">
         <v>23</v>
       </c>
-      <c r="L1757">
-        <v>156.32</v>
+      <c r="L1757" t="s">
+        <v>22</v>
       </c>
       <c r="M1757">
-        <v>24.22</v>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="N1757">
+        <v>5.2</v>
       </c>
       <c r="O1757" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1757" t="s">
-        <v>1478</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1758" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1758" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
       <c r="B1758" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1758" t="s">
         <v>2123</v>
@@ -95554,45 +95563,45 @@
         <v>23</v>
       </c>
       <c r="E1758">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1758" t="s">
-        <v>2273</v>
-      </c>
-      <c r="G1758">
-        <v>2960</v>
+        <v>2279</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>22</v>
       </c>
       <c r="H1758" t="s">
         <v>57</v>
       </c>
       <c r="I1758" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1758" t="s">
         <v>23</v>
       </c>
-      <c r="L1758">
-        <v>156.32</v>
+      <c r="L1758" t="s">
+        <v>22</v>
       </c>
       <c r="M1758">
-        <v>23.72</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="N1758">
-        <v>23.72</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O1758" t="s">
         <v>46</v>
       </c>
       <c r="R1758" t="s">
-        <v>1347</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1759" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1759" s="1">
-        <v>45450</v>
+        <v>45447</v>
       </c>
       <c r="B1759" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1759" t="s">
         <v>2123</v>
@@ -95601,42 +95610,42 @@
         <v>23</v>
       </c>
       <c r="E1759">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1759" t="s">
-        <v>2274</v>
-      </c>
-      <c r="G1759">
-        <v>2960</v>
+        <v>2280</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>22</v>
       </c>
       <c r="H1759" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1759" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1759" t="s">
         <v>23</v>
       </c>
-      <c r="L1759">
-        <v>156.32</v>
+      <c r="L1759" t="s">
+        <v>22</v>
       </c>
       <c r="M1759">
-        <v>23.72</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O1759" t="s">
         <v>46</v>
       </c>
       <c r="R1759" t="s">
-        <v>1347</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1760" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1760" s="1">
-        <v>45449</v>
+        <v>45446</v>
       </c>
       <c r="B1760" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1760" t="s">
         <v>2123</v>
@@ -95645,42 +95654,42 @@
         <v>23</v>
       </c>
       <c r="E1760">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1760" t="s">
-        <v>2275</v>
-      </c>
-      <c r="G1760">
-        <v>2960</v>
+        <v>2281</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>22</v>
       </c>
       <c r="H1760" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1760" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1760" t="s">
         <v>23</v>
       </c>
-      <c r="L1760">
-        <v>156.32</v>
+      <c r="L1760" t="s">
+        <v>22</v>
       </c>
       <c r="M1760">
-        <v>23.72</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O1760" t="s">
         <v>46</v>
       </c>
       <c r="R1760" t="s">
-        <v>1347</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1761" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1761" s="1">
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="B1761" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1761" t="s">
         <v>2123</v>
@@ -95689,42 +95698,42 @@
         <v>23</v>
       </c>
       <c r="E1761">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1761" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="G1761">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1761" t="s">
         <v>43</v>
       </c>
       <c r="I1761" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1761" t="s">
         <v>23</v>
       </c>
       <c r="L1761">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1761">
-        <v>23.72</v>
+        <v>41.41</v>
       </c>
       <c r="O1761" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1761" t="s">
-        <v>1347</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1762" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1762" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B1762" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1762" t="s">
         <v>2123</v>
@@ -95733,37 +95742,34 @@
         <v>23</v>
       </c>
       <c r="E1762">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1762" t="s">
-        <v>2277</v>
-      </c>
-      <c r="G1762" t="s">
-        <v>22</v>
+        <v>2284</v>
+      </c>
+      <c r="G1762">
+        <v>2431</v>
       </c>
       <c r="H1762" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1762" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K1762" t="s">
         <v>23</v>
       </c>
-      <c r="L1762" t="s">
-        <v>22</v>
+      <c r="L1762">
+        <v>0</v>
       </c>
       <c r="M1762">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="N1762">
-        <v>5.2</v>
+        <v>41.41</v>
       </c>
       <c r="O1762" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1762" t="s">
-        <v>2278</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1763" spans="1:18" x14ac:dyDescent="0.45">
@@ -95780,37 +95786,34 @@
         <v>23</v>
       </c>
       <c r="E1763">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1763" t="s">
-        <v>2279</v>
-      </c>
-      <c r="G1763" t="s">
-        <v>22</v>
+        <v>2285</v>
+      </c>
+      <c r="G1763">
+        <v>2431</v>
       </c>
       <c r="H1763" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1763" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K1763" t="s">
         <v>23</v>
       </c>
-      <c r="L1763" t="s">
-        <v>22</v>
+      <c r="L1763">
+        <v>0</v>
       </c>
       <c r="M1763">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="N1763">
-        <v>9.6300000000000008</v>
+        <v>41.41</v>
       </c>
       <c r="O1763" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1763" t="s">
-        <v>2278</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1764" spans="1:18" x14ac:dyDescent="0.45">
@@ -95827,34 +95830,34 @@
         <v>23</v>
       </c>
       <c r="E1764">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1764" t="s">
-        <v>2280</v>
-      </c>
-      <c r="G1764" t="s">
-        <v>22</v>
+        <v>2286</v>
+      </c>
+      <c r="G1764">
+        <v>2431</v>
       </c>
       <c r="H1764" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1764" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K1764" t="s">
         <v>23</v>
       </c>
-      <c r="L1764" t="s">
-        <v>22</v>
+      <c r="L1764">
+        <v>0</v>
       </c>
       <c r="M1764">
-        <v>9.6300000000000008</v>
+        <v>41.41</v>
       </c>
       <c r="O1764" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1764" t="s">
-        <v>2278</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1765" spans="1:18" x14ac:dyDescent="0.45">
@@ -95871,34 +95874,34 @@
         <v>23</v>
       </c>
       <c r="E1765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1765" t="s">
-        <v>2281</v>
-      </c>
-      <c r="G1765" t="s">
-        <v>22</v>
+        <v>2287</v>
+      </c>
+      <c r="G1765">
+        <v>2431</v>
       </c>
       <c r="H1765" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1765" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K1765" t="s">
         <v>23</v>
       </c>
-      <c r="L1765" t="s">
-        <v>22</v>
+      <c r="L1765">
+        <v>0</v>
       </c>
       <c r="M1765">
-        <v>9.6300000000000008</v>
+        <v>41.41</v>
       </c>
       <c r="O1765" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R1765" t="s">
-        <v>2278</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1766" spans="1:18" x14ac:dyDescent="0.45">
@@ -95915,16 +95918,16 @@
         <v>23</v>
       </c>
       <c r="E1766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1766" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="G1766">
         <v>2431</v>
       </c>
       <c r="H1766" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1766" t="s">
         <v>58</v>
@@ -95936,21 +95939,24 @@
         <v>0</v>
       </c>
       <c r="M1766">
-        <v>41.41</v>
+        <v>25.77</v>
+      </c>
+      <c r="N1766">
+        <v>25.77</v>
       </c>
       <c r="O1766" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1766" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1767" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1767" s="1">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B1767" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1767" t="s">
         <v>2123</v>
@@ -95959,10 +95965,10 @@
         <v>23</v>
       </c>
       <c r="E1767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1767" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="G1767">
         <v>2431</v>
@@ -95980,21 +95986,21 @@
         <v>0</v>
       </c>
       <c r="M1767">
-        <v>41.41</v>
+        <v>25.77</v>
       </c>
       <c r="O1767" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1767" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1768" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1768" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B1768" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1768" t="s">
         <v>2123</v>
@@ -96003,10 +96009,10 @@
         <v>23</v>
       </c>
       <c r="E1768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1768" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
       <c r="G1768">
         <v>2431</v>
@@ -96024,21 +96030,21 @@
         <v>0</v>
       </c>
       <c r="M1768">
-        <v>41.41</v>
+        <v>25.77</v>
       </c>
       <c r="O1768" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1768" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1769" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1769" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B1769" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1769" t="s">
         <v>2123</v>
@@ -96047,10 +96053,10 @@
         <v>23</v>
       </c>
       <c r="E1769">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1769" t="s">
-        <v>2286</v>
+        <v>2292</v>
       </c>
       <c r="G1769">
         <v>2431</v>
@@ -96068,21 +96074,21 @@
         <v>0</v>
       </c>
       <c r="M1769">
-        <v>41.41</v>
+        <v>25.77</v>
       </c>
       <c r="O1769" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1769" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1770" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1770" s="1">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B1770" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C1770" t="s">
         <v>2123</v>
@@ -96091,10 +96097,10 @@
         <v>23</v>
       </c>
       <c r="E1770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1770" t="s">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="G1770">
         <v>2431</v>
@@ -96112,21 +96118,21 @@
         <v>0</v>
       </c>
       <c r="M1770">
-        <v>41.41</v>
+        <v>25.77</v>
       </c>
       <c r="O1770" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R1770" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1771" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1771" s="1">
-        <v>45450</v>
+        <v>45446</v>
       </c>
       <c r="B1771" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1771" t="s">
         <v>2123</v>
@@ -96138,13 +96144,13 @@
         <v>1</v>
       </c>
       <c r="F1771" t="s">
-        <v>2288</v>
+        <v>2294</v>
       </c>
       <c r="G1771">
         <v>2431</v>
       </c>
       <c r="H1771" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1771" t="s">
         <v>58</v>
@@ -96158,9 +96164,6 @@
       <c r="M1771">
         <v>25.77</v>
       </c>
-      <c r="N1771">
-        <v>25.77</v>
-      </c>
       <c r="O1771" t="s">
         <v>33</v>
       </c>
@@ -96170,72 +96173,75 @@
     </row>
     <row r="1772" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1772" s="1">
-        <v>45450</v>
+        <v>45442</v>
       </c>
       <c r="B1772" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1772" t="s">
-        <v>2123</v>
+        <v>19</v>
       </c>
       <c r="D1772">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1772">
         <v>1</v>
       </c>
       <c r="F1772" t="s">
-        <v>2290</v>
+        <v>2295</v>
       </c>
       <c r="G1772">
-        <v>2431</v>
+        <v>2776</v>
       </c>
       <c r="H1772" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1772" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="K1772" t="s">
         <v>23</v>
       </c>
       <c r="L1772">
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="M1772">
-        <v>25.77</v>
+        <v>15</v>
+      </c>
+      <c r="N1772">
+        <v>15</v>
       </c>
       <c r="O1772" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1772" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1773" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1773" s="1">
-        <v>45449</v>
+        <v>45441</v>
       </c>
       <c r="B1773" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1773" t="s">
-        <v>2123</v>
+        <v>19</v>
       </c>
       <c r="D1773">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1773">
         <v>1</v>
       </c>
       <c r="F1773" t="s">
-        <v>2291</v>
+        <v>2297</v>
       </c>
       <c r="G1773">
         <v>2431</v>
       </c>
       <c r="H1773" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1773" t="s">
         <v>58</v>
@@ -96247,153 +96253,156 @@
         <v>0</v>
       </c>
       <c r="M1773">
-        <v>25.77</v>
+        <v>40.6</v>
+      </c>
+      <c r="N1773">
+        <v>8.16</v>
       </c>
       <c r="O1773" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="R1773" t="s">
-        <v>2289</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1774" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1774" s="1">
-        <v>45448</v>
+        <v>45443</v>
       </c>
       <c r="B1774" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1774" t="s">
-        <v>2123</v>
+        <v>19</v>
       </c>
       <c r="D1774">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1774">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1774" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
       <c r="G1774">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1774" t="s">
         <v>43</v>
       </c>
       <c r="I1774" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1774" t="s">
         <v>23</v>
       </c>
       <c r="L1774">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1774">
-        <v>25.77</v>
+        <v>20</v>
       </c>
       <c r="O1774" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1774" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1775" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1775" s="1">
-        <v>45447</v>
+        <v>45442</v>
       </c>
       <c r="B1775" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1775" t="s">
-        <v>2123</v>
+        <v>19</v>
       </c>
       <c r="D1775">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1775">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1775" t="s">
-        <v>2293</v>
+        <v>2301</v>
       </c>
       <c r="G1775">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1775" t="s">
         <v>43</v>
       </c>
       <c r="I1775" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1775" t="s">
         <v>23</v>
       </c>
       <c r="L1775">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1775">
-        <v>25.77</v>
+        <v>20</v>
       </c>
       <c r="O1775" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1775" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1776" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1776" s="1">
-        <v>45446</v>
+        <v>45441</v>
       </c>
       <c r="B1776" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1776" t="s">
-        <v>2123</v>
+        <v>19</v>
       </c>
       <c r="D1776">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1776">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1776" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="G1776">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1776" t="s">
         <v>43</v>
       </c>
       <c r="I1776" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1776" t="s">
         <v>23</v>
       </c>
       <c r="L1776">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1776">
-        <v>25.77</v>
+        <v>20</v>
       </c>
       <c r="O1776" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1776" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1777" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1777" s="1">
-        <v>45442</v>
+        <v>45440</v>
       </c>
       <c r="B1777" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1777" t="s">
         <v>19</v>
@@ -96402,45 +96411,42 @@
         <v>22</v>
       </c>
       <c r="E1777">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1777" t="s">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="G1777">
-        <v>2776</v>
+        <v>2960</v>
       </c>
       <c r="H1777" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1777" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K1777" t="s">
         <v>23</v>
       </c>
       <c r="L1777">
-        <v>74.75</v>
+        <v>156.32</v>
       </c>
       <c r="M1777">
-        <v>15</v>
-      </c>
-      <c r="N1777">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O1777" t="s">
         <v>24</v>
       </c>
       <c r="R1777" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1778" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1778" s="1">
-        <v>45441</v>
+        <v>45439</v>
       </c>
       <c r="B1778" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1778" t="s">
         <v>19</v>
@@ -96449,37 +96455,34 @@
         <v>22</v>
       </c>
       <c r="E1778">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1778" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="G1778">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1778" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1778" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1778" t="s">
         <v>23</v>
       </c>
       <c r="L1778">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1778">
-        <v>40.6</v>
-      </c>
-      <c r="N1778">
-        <v>8.16</v>
+        <v>20</v>
       </c>
       <c r="O1778" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="R1778" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1779" spans="1:18" x14ac:dyDescent="0.45">
@@ -96496,10 +96499,10 @@
         <v>22</v>
       </c>
       <c r="E1779">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1779" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="G1779">
         <v>2960</v>
@@ -96520,7 +96523,7 @@
         <v>20</v>
       </c>
       <c r="O1779" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1779" t="s">
         <v>2300</v>
@@ -96540,10 +96543,10 @@
         <v>22</v>
       </c>
       <c r="E1780">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1780" t="s">
-        <v>2301</v>
+        <v>2306</v>
       </c>
       <c r="G1780">
         <v>2960</v>
@@ -96564,7 +96567,7 @@
         <v>20</v>
       </c>
       <c r="O1780" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1780" t="s">
         <v>2300</v>
@@ -96584,10 +96587,10 @@
         <v>22</v>
       </c>
       <c r="E1781">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1781" t="s">
-        <v>2302</v>
+        <v>2307</v>
       </c>
       <c r="G1781">
         <v>2960</v>
@@ -96608,7 +96611,7 @@
         <v>20</v>
       </c>
       <c r="O1781" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1781" t="s">
         <v>2300</v>
@@ -96628,10 +96631,10 @@
         <v>22</v>
       </c>
       <c r="E1782">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1782" t="s">
-        <v>2303</v>
+        <v>2308</v>
       </c>
       <c r="G1782">
         <v>2960</v>
@@ -96652,7 +96655,7 @@
         <v>20</v>
       </c>
       <c r="O1782" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1782" t="s">
         <v>2300</v>
@@ -96672,10 +96675,10 @@
         <v>22</v>
       </c>
       <c r="E1783">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1783" t="s">
-        <v>2304</v>
+        <v>2309</v>
       </c>
       <c r="G1783">
         <v>2960</v>
@@ -96696,7 +96699,7 @@
         <v>20</v>
       </c>
       <c r="O1783" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1783" t="s">
         <v>2300</v>
@@ -96719,13 +96722,13 @@
         <v>2</v>
       </c>
       <c r="F1784" t="s">
-        <v>2305</v>
+        <v>2310</v>
       </c>
       <c r="G1784">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="H1784" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1784" t="s">
         <v>44</v>
@@ -96734,16 +96737,19 @@
         <v>23</v>
       </c>
       <c r="L1784">
-        <v>156.32</v>
+        <v>32.56</v>
       </c>
       <c r="M1784">
-        <v>20</v>
+        <v>31.01</v>
+      </c>
+      <c r="N1784">
+        <v>31.01</v>
       </c>
       <c r="O1784" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="R1784" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1785" spans="1:18" x14ac:dyDescent="0.45">
@@ -96760,13 +96766,13 @@
         <v>22</v>
       </c>
       <c r="E1785">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1785" t="s">
-        <v>2306</v>
+        <v>2312</v>
       </c>
       <c r="G1785">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="H1785" t="s">
         <v>43</v>
@@ -96778,16 +96784,16 @@
         <v>23</v>
       </c>
       <c r="L1785">
-        <v>156.32</v>
+        <v>32.56</v>
       </c>
       <c r="M1785">
-        <v>20</v>
+        <v>31.01</v>
       </c>
       <c r="O1785" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="R1785" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1786" spans="1:18" x14ac:dyDescent="0.45">
@@ -96804,13 +96810,13 @@
         <v>22</v>
       </c>
       <c r="E1786">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1786" t="s">
-        <v>2307</v>
+        <v>2313</v>
       </c>
       <c r="G1786">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="H1786" t="s">
         <v>43</v>
@@ -96822,16 +96828,16 @@
         <v>23</v>
       </c>
       <c r="L1786">
-        <v>156.32</v>
+        <v>32.56</v>
       </c>
       <c r="M1786">
-        <v>20</v>
+        <v>31.01</v>
       </c>
       <c r="O1786" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="R1786" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1787" spans="1:18" x14ac:dyDescent="0.45">
@@ -96848,13 +96854,13 @@
         <v>22</v>
       </c>
       <c r="E1787">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1787" t="s">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="G1787">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="H1787" t="s">
         <v>43</v>
@@ -96866,16 +96872,16 @@
         <v>23</v>
       </c>
       <c r="L1787">
-        <v>156.32</v>
+        <v>32.56</v>
       </c>
       <c r="M1787">
-        <v>20</v>
+        <v>31.01</v>
       </c>
       <c r="O1787" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="R1787" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1788" spans="1:18" x14ac:dyDescent="0.45">
@@ -96892,13 +96898,13 @@
         <v>22</v>
       </c>
       <c r="E1788">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1788" t="s">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="G1788">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="H1788" t="s">
         <v>43</v>
@@ -96910,24 +96916,24 @@
         <v>23</v>
       </c>
       <c r="L1788">
-        <v>156.32</v>
+        <v>32.56</v>
       </c>
       <c r="M1788">
-        <v>20</v>
+        <v>31.01</v>
       </c>
       <c r="O1788" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="R1788" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1789" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1789" s="1">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B1789" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1789" t="s">
         <v>19</v>
@@ -96939,42 +96945,42 @@
         <v>2</v>
       </c>
       <c r="F1789" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="G1789">
-        <v>2934</v>
+        <v>2431</v>
       </c>
       <c r="H1789" t="s">
         <v>57</v>
       </c>
       <c r="I1789" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1789" t="s">
         <v>23</v>
       </c>
       <c r="L1789">
-        <v>32.56</v>
+        <v>0</v>
       </c>
       <c r="M1789">
-        <v>31.01</v>
+        <v>32.4</v>
       </c>
       <c r="N1789">
-        <v>31.01</v>
+        <v>32.4</v>
       </c>
       <c r="O1789" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1789" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1790" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1790" s="1">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B1790" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1790" t="s">
         <v>19</v>
@@ -96983,42 +96989,42 @@
         <v>22</v>
       </c>
       <c r="E1790">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1790" t="s">
-        <v>2312</v>
+        <v>2318</v>
       </c>
       <c r="G1790">
-        <v>2934</v>
+        <v>2431</v>
       </c>
       <c r="H1790" t="s">
         <v>43</v>
       </c>
       <c r="I1790" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1790" t="s">
         <v>23</v>
       </c>
       <c r="L1790">
-        <v>32.56</v>
+        <v>0</v>
       </c>
       <c r="M1790">
-        <v>31.01</v>
+        <v>32.4</v>
       </c>
       <c r="O1790" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1790" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1791" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1791" s="1">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B1791" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1791" t="s">
         <v>19</v>
@@ -97027,42 +97033,42 @@
         <v>22</v>
       </c>
       <c r="E1791">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1791" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="G1791">
-        <v>2934</v>
+        <v>2431</v>
       </c>
       <c r="H1791" t="s">
         <v>43</v>
       </c>
       <c r="I1791" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1791" t="s">
         <v>23</v>
       </c>
       <c r="L1791">
-        <v>32.56</v>
+        <v>0</v>
       </c>
       <c r="M1791">
-        <v>31.01</v>
+        <v>32.4</v>
       </c>
       <c r="O1791" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1791" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1792" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1792" s="1">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B1792" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C1792" t="s">
         <v>19</v>
@@ -97071,42 +97077,42 @@
         <v>22</v>
       </c>
       <c r="E1792">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1792" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="G1792">
-        <v>2934</v>
+        <v>2431</v>
       </c>
       <c r="H1792" t="s">
         <v>43</v>
       </c>
       <c r="I1792" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1792" t="s">
         <v>23</v>
       </c>
       <c r="L1792">
-        <v>32.56</v>
+        <v>0</v>
       </c>
       <c r="M1792">
-        <v>31.01</v>
+        <v>32.4</v>
       </c>
       <c r="O1792" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1792" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1793" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1793" s="1">
-        <v>45439</v>
+        <v>45443</v>
       </c>
       <c r="B1793" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1793" t="s">
         <v>19</v>
@@ -97115,34 +97121,34 @@
         <v>22</v>
       </c>
       <c r="E1793">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1793" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="G1793">
-        <v>2934</v>
+        <v>2431</v>
       </c>
       <c r="H1793" t="s">
         <v>43</v>
       </c>
       <c r="I1793" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1793" t="s">
         <v>23</v>
       </c>
       <c r="L1793">
-        <v>32.56</v>
+        <v>0</v>
       </c>
       <c r="M1793">
-        <v>31.01</v>
+        <v>25.77</v>
       </c>
       <c r="O1793" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R1793" t="s">
-        <v>2311</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1794" spans="1:18" x14ac:dyDescent="0.45">
@@ -97162,13 +97168,13 @@
         <v>2</v>
       </c>
       <c r="F1794" t="s">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="G1794">
         <v>2431</v>
       </c>
       <c r="H1794" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1794" t="s">
         <v>58</v>
@@ -97180,24 +97186,21 @@
         <v>0</v>
       </c>
       <c r="M1794">
-        <v>32.4</v>
-      </c>
-      <c r="N1794">
-        <v>32.4</v>
+        <v>25.77</v>
       </c>
       <c r="O1794" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1794" t="s">
-        <v>2317</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1795" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1795" s="1">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B1795" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1795" t="s">
         <v>19</v>
@@ -97206,16 +97209,16 @@
         <v>22</v>
       </c>
       <c r="E1795">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1795" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="G1795">
         <v>2431</v>
       </c>
       <c r="H1795" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1795" t="s">
         <v>58</v>
@@ -97227,21 +97230,24 @@
         <v>0</v>
       </c>
       <c r="M1795">
-        <v>32.4</v>
+        <v>40.630000000000003</v>
+      </c>
+      <c r="N1795">
+        <v>8</v>
       </c>
       <c r="O1795" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1795" t="s">
-        <v>2317</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1796" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1796" s="1">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B1796" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1796" t="s">
         <v>19</v>
@@ -97250,16 +97256,16 @@
         <v>22</v>
       </c>
       <c r="E1796">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1796" t="s">
-        <v>2319</v>
+        <v>2325</v>
       </c>
       <c r="G1796">
         <v>2431</v>
       </c>
       <c r="H1796" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1796" t="s">
         <v>58</v>
@@ -97271,21 +97277,21 @@
         <v>0</v>
       </c>
       <c r="M1796">
-        <v>32.4</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="O1796" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1796" t="s">
-        <v>2317</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1797" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1797" s="1">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B1797" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C1797" t="s">
         <v>19</v>
@@ -97294,16 +97300,16 @@
         <v>22</v>
       </c>
       <c r="E1797">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1797" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="G1797">
         <v>2431</v>
       </c>
       <c r="H1797" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1797" t="s">
         <v>58</v>
@@ -97315,21 +97321,21 @@
         <v>0</v>
       </c>
       <c r="M1797">
-        <v>32.4</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="O1797" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1797" t="s">
-        <v>2317</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1798" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1798" s="1">
-        <v>45443</v>
+        <v>45439</v>
       </c>
       <c r="B1798" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1798" t="s">
         <v>19</v>
@@ -97341,13 +97347,13 @@
         <v>1</v>
       </c>
       <c r="F1798" t="s">
-        <v>2321</v>
+        <v>2327</v>
       </c>
       <c r="G1798">
         <v>2431</v>
       </c>
       <c r="H1798" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1798" t="s">
         <v>58</v>
@@ -97359,21 +97365,21 @@
         <v>0</v>
       </c>
       <c r="M1798">
-        <v>25.77</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="O1798" t="s">
         <v>69</v>
       </c>
       <c r="R1798" t="s">
-        <v>2322</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1799" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1799" s="1">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B1799" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1799" t="s">
         <v>19</v>
@@ -97382,34 +97388,37 @@
         <v>22</v>
       </c>
       <c r="E1799">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1799" t="s">
-        <v>2323</v>
+        <v>2328</v>
       </c>
       <c r="G1799">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="H1799" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1799" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1799" t="s">
         <v>23</v>
       </c>
       <c r="L1799">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="M1799">
-        <v>25.77</v>
+        <v>28.63</v>
+      </c>
+      <c r="N1799">
+        <v>28.63</v>
       </c>
       <c r="O1799" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R1799" t="s">
-        <v>2322</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1800" spans="1:18" x14ac:dyDescent="0.45">
@@ -97429,34 +97438,31 @@
         <v>1</v>
       </c>
       <c r="F1800" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
       <c r="G1800">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="H1800" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1800" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1800" t="s">
         <v>23</v>
       </c>
       <c r="L1800">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="M1800">
-        <v>40.630000000000003</v>
-      </c>
-      <c r="N1800">
-        <v>8</v>
+        <v>28.63</v>
       </c>
       <c r="O1800" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R1800" t="s">
-        <v>2298</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1801" spans="1:18" x14ac:dyDescent="0.45">
@@ -97476,31 +97482,31 @@
         <v>1</v>
       </c>
       <c r="F1801" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
       <c r="G1801">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="H1801" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1801" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1801" t="s">
         <v>23</v>
       </c>
       <c r="L1801">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="M1801">
-        <v>40.630000000000003</v>
+        <v>28.63</v>
       </c>
       <c r="O1801" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R1801" t="s">
-        <v>2298</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1802" spans="1:18" x14ac:dyDescent="0.45">
@@ -97520,31 +97526,31 @@
         <v>1</v>
       </c>
       <c r="F1802" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="G1802">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="H1802" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1802" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1802" t="s">
         <v>23</v>
       </c>
       <c r="L1802">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="M1802">
-        <v>40.630000000000003</v>
+        <v>28.63</v>
       </c>
       <c r="O1802" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R1802" t="s">
-        <v>2298</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1803" spans="1:18" x14ac:dyDescent="0.45">
@@ -97564,104 +97570,104 @@
         <v>1</v>
       </c>
       <c r="F1803" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
       <c r="G1803">
-        <v>2431</v>
+        <v>2599</v>
       </c>
       <c r="H1803" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1803" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1803" t="s">
         <v>23</v>
       </c>
       <c r="L1803">
-        <v>0</v>
+        <v>26.63</v>
       </c>
       <c r="M1803">
-        <v>40.630000000000003</v>
+        <v>28.63</v>
       </c>
       <c r="O1803" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R1803" t="s">
-        <v>2298</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1804" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1804" s="1">
-        <v>45443</v>
+        <v>45437</v>
       </c>
       <c r="B1804" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C1804" t="s">
         <v>19</v>
       </c>
       <c r="D1804">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1804">
         <v>1</v>
       </c>
       <c r="F1804" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="G1804">
-        <v>2599</v>
+        <v>2431</v>
       </c>
       <c r="H1804" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1804" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1804" t="s">
         <v>23</v>
       </c>
       <c r="L1804">
-        <v>26.63</v>
+        <v>0</v>
       </c>
       <c r="M1804">
-        <v>28.63</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="N1804">
-        <v>28.63</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="O1804" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="R1804" t="s">
-        <v>2329</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1805" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1805" s="1">
-        <v>45442</v>
+        <v>45437</v>
       </c>
       <c r="B1805" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C1805" t="s">
         <v>19</v>
       </c>
       <c r="D1805">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1805">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1805" t="s">
-        <v>2330</v>
-      </c>
-      <c r="G1805">
-        <v>2599</v>
+        <v>2336</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>2242</v>
       </c>
       <c r="H1805" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1805" t="s">
         <v>44</v>
@@ -97670,42 +97676,45 @@
         <v>23</v>
       </c>
       <c r="L1805">
-        <v>26.63</v>
+        <v>0</v>
       </c>
       <c r="M1805">
-        <v>28.63</v>
+        <v>31.58</v>
+      </c>
+      <c r="N1805">
+        <v>31.58</v>
       </c>
       <c r="O1805" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="R1805" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1806" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1806" s="1">
-        <v>45441</v>
+        <v>45437</v>
       </c>
       <c r="B1806" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C1806" t="s">
         <v>19</v>
       </c>
       <c r="D1806">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1806">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1806" t="s">
-        <v>2331</v>
+        <v>2338</v>
       </c>
       <c r="G1806">
-        <v>2599</v>
+        <v>2960</v>
       </c>
       <c r="H1806" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1806" t="s">
         <v>44</v>
@@ -97714,42 +97723,45 @@
         <v>23</v>
       </c>
       <c r="L1806">
-        <v>26.63</v>
+        <v>156.32</v>
       </c>
       <c r="M1806">
-        <v>28.63</v>
+        <v>9.6</v>
+      </c>
+      <c r="N1806">
+        <v>9.6</v>
       </c>
       <c r="O1806" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1806" t="s">
-        <v>2329</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1807" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1807" s="1">
-        <v>45440</v>
+        <v>45437</v>
       </c>
       <c r="B1807" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C1807" t="s">
         <v>19</v>
       </c>
       <c r="D1807">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1807">
         <v>1</v>
       </c>
       <c r="F1807" t="s">
-        <v>2332</v>
-      </c>
-      <c r="G1807">
-        <v>2599</v>
+        <v>2339</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>2242</v>
       </c>
       <c r="H1807" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1807" t="s">
         <v>44</v>
@@ -97758,68 +97770,71 @@
         <v>23</v>
       </c>
       <c r="L1807">
-        <v>26.63</v>
+        <v>0</v>
       </c>
       <c r="M1807">
-        <v>28.63</v>
+        <v>29.22</v>
+      </c>
+      <c r="N1807">
+        <v>29.22</v>
       </c>
       <c r="O1807" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1807" t="s">
-        <v>2329</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1808" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1808" s="1">
-        <v>45439</v>
+        <v>45292</v>
       </c>
       <c r="B1808" t="s">
         <v>40</v>
       </c>
       <c r="C1808" t="s">
-        <v>19</v>
+        <v>723</v>
       </c>
       <c r="D1808">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E1808">
         <v>1</v>
       </c>
       <c r="F1808" t="s">
-        <v>2333</v>
+        <v>2341</v>
       </c>
       <c r="G1808">
-        <v>2599</v>
+        <v>2400</v>
       </c>
       <c r="H1808" t="s">
         <v>43</v>
       </c>
       <c r="I1808" t="s">
-        <v>44</v>
+        <v>2342</v>
       </c>
       <c r="K1808" t="s">
         <v>23</v>
       </c>
       <c r="L1808">
-        <v>26.63</v>
+        <v>1</v>
       </c>
       <c r="M1808">
-        <v>28.63</v>
+        <v>2</v>
       </c>
       <c r="O1808" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1808" t="s">
-        <v>2329</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1809" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1809" s="1">
-        <v>45437</v>
+        <v>45433</v>
       </c>
       <c r="B1809" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C1809" t="s">
         <v>19</v>
@@ -97828,19 +97843,19 @@
         <v>21</v>
       </c>
       <c r="E1809">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1809" t="s">
-        <v>2334</v>
+        <v>20</v>
       </c>
       <c r="G1809">
-        <v>2431</v>
+        <v>3004</v>
       </c>
       <c r="H1809" t="s">
         <v>21</v>
       </c>
       <c r="I1809" t="s">
-        <v>58</v>
+        <v>2344</v>
       </c>
       <c r="K1809" t="s">
         <v>23</v>
@@ -97849,24 +97864,24 @@
         <v>0</v>
       </c>
       <c r="M1809">
-        <v>40.630000000000003</v>
+        <v>2</v>
       </c>
       <c r="N1809">
-        <v>40.630000000000003</v>
+        <v>2</v>
       </c>
       <c r="O1809" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="R1809" t="s">
-        <v>2335</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1810" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1810" s="1">
-        <v>45437</v>
+        <v>45433</v>
       </c>
       <c r="B1810" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C1810" t="s">
         <v>19</v>
@@ -97875,45 +97890,45 @@
         <v>21</v>
       </c>
       <c r="E1810">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1810" t="s">
-        <v>2336</v>
-      </c>
-      <c r="G1810" t="s">
-        <v>2242</v>
+        <v>26</v>
+      </c>
+      <c r="G1810">
+        <v>2776</v>
       </c>
       <c r="H1810" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1810" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K1810" t="s">
         <v>23</v>
       </c>
       <c r="L1810">
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="M1810">
-        <v>31.58</v>
+        <v>4</v>
       </c>
       <c r="N1810">
-        <v>31.58</v>
+        <v>4</v>
       </c>
       <c r="O1810" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="R1810" t="s">
-        <v>2337</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1811" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1811" s="1">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B1811" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C1811" t="s">
         <v>19</v>
@@ -97922,16 +97937,16 @@
         <v>21</v>
       </c>
       <c r="E1811">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1811" t="s">
-        <v>2338</v>
+        <v>31</v>
       </c>
       <c r="G1811">
-        <v>2960</v>
+        <v>1090</v>
       </c>
       <c r="H1811" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I1811" t="s">
         <v>44</v>
@@ -97940,27 +97955,24 @@
         <v>23</v>
       </c>
       <c r="L1811">
-        <v>156.32</v>
+        <v>116.78</v>
       </c>
       <c r="M1811">
-        <v>9.6</v>
-      </c>
-      <c r="N1811">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="O1811" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1811" t="s">
-        <v>1600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1812" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1812" s="1">
-        <v>45437</v>
+        <v>45435</v>
       </c>
       <c r="B1812" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C1812" t="s">
         <v>19</v>
@@ -97972,13 +97984,13 @@
         <v>1</v>
       </c>
       <c r="F1812" t="s">
-        <v>2339</v>
-      </c>
-      <c r="G1812" t="s">
-        <v>2242</v>
+        <v>36</v>
+      </c>
+      <c r="G1812">
+        <v>1090</v>
       </c>
       <c r="H1812" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I1812" t="s">
         <v>44</v>
@@ -97987,63 +97999,60 @@
         <v>23</v>
       </c>
       <c r="L1812">
-        <v>0</v>
+        <v>116.78</v>
       </c>
       <c r="M1812">
-        <v>29.22</v>
-      </c>
-      <c r="N1812">
-        <v>29.22</v>
+        <v>20</v>
       </c>
       <c r="O1812" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1812" t="s">
-        <v>2340</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1813" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1813" s="1">
-        <v>45292</v>
+        <v>45434</v>
       </c>
       <c r="B1813" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1813" t="s">
-        <v>723</v>
+        <v>19</v>
       </c>
       <c r="D1813">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E1813">
         <v>1</v>
       </c>
       <c r="F1813" t="s">
-        <v>2341</v>
+        <v>38</v>
       </c>
       <c r="G1813">
-        <v>2400</v>
+        <v>1090</v>
       </c>
       <c r="H1813" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1813" t="s">
-        <v>2342</v>
+        <v>44</v>
       </c>
       <c r="K1813" t="s">
         <v>23</v>
       </c>
       <c r="L1813">
-        <v>1</v>
+        <v>116.78</v>
       </c>
       <c r="M1813">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O1813" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1813" t="s">
-        <v>2343</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1814" spans="1:18" x14ac:dyDescent="0.45">
@@ -98063,42 +98072,39 @@
         <v>2</v>
       </c>
       <c r="F1814" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1814">
+        <v>1090</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1814" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1814">
+        <v>116.78</v>
+      </c>
+      <c r="M1814">
         <v>20</v>
       </c>
-      <c r="G1814">
-        <v>3004</v>
-      </c>
-      <c r="H1814" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1814" t="s">
-        <v>2344</v>
-      </c>
-      <c r="K1814" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1814">
-        <v>0</v>
-      </c>
-      <c r="M1814">
-        <v>2</v>
-      </c>
-      <c r="N1814">
-        <v>2</v>
-      </c>
       <c r="O1814" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1814" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1815" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1815" s="1">
-        <v>45433</v>
+        <v>45432</v>
       </c>
       <c r="B1815" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C1815" t="s">
         <v>19</v>
@@ -98107,37 +98113,34 @@
         <v>21</v>
       </c>
       <c r="E1815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1815" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G1815">
-        <v>2776</v>
+        <v>1090</v>
       </c>
       <c r="H1815" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1815" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K1815" t="s">
         <v>23</v>
       </c>
       <c r="L1815">
-        <v>74.75</v>
+        <v>116.78</v>
       </c>
       <c r="M1815">
-        <v>4</v>
-      </c>
-      <c r="N1815">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O1815" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1815" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1816" spans="1:18" x14ac:dyDescent="0.45">
@@ -98154,16 +98157,16 @@
         <v>21</v>
       </c>
       <c r="E1816">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1816" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G1816">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1816" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1816" t="s">
         <v>44</v>
@@ -98172,16 +98175,16 @@
         <v>23</v>
       </c>
       <c r="L1816">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1816">
         <v>20</v>
       </c>
       <c r="O1816" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1816" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1817" spans="1:18" x14ac:dyDescent="0.45">
@@ -98198,16 +98201,16 @@
         <v>21</v>
       </c>
       <c r="E1817">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1817" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G1817">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1817" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1817" t="s">
         <v>44</v>
@@ -98216,16 +98219,16 @@
         <v>23</v>
       </c>
       <c r="L1817">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1817">
         <v>20</v>
       </c>
       <c r="O1817" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1817" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1818" spans="1:18" x14ac:dyDescent="0.45">
@@ -98242,16 +98245,16 @@
         <v>21</v>
       </c>
       <c r="E1818">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1818" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G1818">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1818" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1818" t="s">
         <v>44</v>
@@ -98260,16 +98263,16 @@
         <v>23</v>
       </c>
       <c r="L1818">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1818">
         <v>20</v>
       </c>
       <c r="O1818" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1818" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1819" spans="1:18" x14ac:dyDescent="0.45">
@@ -98286,16 +98289,16 @@
         <v>21</v>
       </c>
       <c r="E1819">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1819" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G1819">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1819" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1819" t="s">
         <v>44</v>
@@ -98304,16 +98307,16 @@
         <v>23</v>
       </c>
       <c r="L1819">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1819">
         <v>20</v>
       </c>
       <c r="O1819" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1819" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1820" spans="1:18" x14ac:dyDescent="0.45">
@@ -98330,16 +98333,16 @@
         <v>21</v>
       </c>
       <c r="E1820">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1820" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1820">
-        <v>1090</v>
+        <v>2960</v>
       </c>
       <c r="H1820" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1820" t="s">
         <v>44</v>
@@ -98348,16 +98351,16 @@
         <v>23</v>
       </c>
       <c r="L1820">
-        <v>116.78</v>
+        <v>156.32</v>
       </c>
       <c r="M1820">
         <v>20</v>
       </c>
       <c r="O1820" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1820" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1821" spans="1:18" x14ac:dyDescent="0.45">
@@ -98374,10 +98377,10 @@
         <v>21</v>
       </c>
       <c r="E1821">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1821" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1821">
         <v>2960</v>
@@ -98398,7 +98401,7 @@
         <v>20</v>
       </c>
       <c r="O1821" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1821" t="s">
         <v>45</v>
@@ -98418,10 +98421,10 @@
         <v>21</v>
       </c>
       <c r="E1822">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1822" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G1822">
         <v>2960</v>
@@ -98442,7 +98445,7 @@
         <v>20</v>
       </c>
       <c r="O1822" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1822" t="s">
         <v>45</v>
@@ -98462,10 +98465,10 @@
         <v>21</v>
       </c>
       <c r="E1823">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1823" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1823">
         <v>2960</v>
@@ -98486,7 +98489,7 @@
         <v>20</v>
       </c>
       <c r="O1823" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1823" t="s">
         <v>45</v>
@@ -98506,10 +98509,10 @@
         <v>21</v>
       </c>
       <c r="E1824">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1824" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G1824">
         <v>2960</v>
@@ -98530,7 +98533,7 @@
         <v>20</v>
       </c>
       <c r="O1824" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1824" t="s">
         <v>45</v>
@@ -98550,10 +98553,10 @@
         <v>21</v>
       </c>
       <c r="E1825">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1825" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1825">
         <v>2960</v>
@@ -98574,7 +98577,7 @@
         <v>20</v>
       </c>
       <c r="O1825" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R1825" t="s">
         <v>45</v>
@@ -98582,10 +98585,10 @@
     </row>
     <row r="1826" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1826" s="1">
-        <v>45436</v>
+        <v>45433</v>
       </c>
       <c r="B1826" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1826" t="s">
         <v>19</v>
@@ -98594,42 +98597,42 @@
         <v>21</v>
       </c>
       <c r="E1826">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1826" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1826">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1826" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1826" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1826" t="s">
         <v>23</v>
       </c>
       <c r="L1826">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1826">
-        <v>20</v>
+        <v>32.4</v>
       </c>
       <c r="O1826" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R1826" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1827" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1827" s="1">
-        <v>45435</v>
+        <v>45433</v>
       </c>
       <c r="B1827" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1827" t="s">
         <v>19</v>
@@ -98638,42 +98641,42 @@
         <v>21</v>
       </c>
       <c r="E1827">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1827" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G1827">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1827" t="s">
         <v>43</v>
       </c>
       <c r="I1827" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1827" t="s">
         <v>23</v>
       </c>
       <c r="L1827">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1827">
-        <v>20</v>
+        <v>32.4</v>
       </c>
       <c r="O1827" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R1827" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1828" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1828" s="1">
-        <v>45434</v>
+        <v>45432</v>
       </c>
       <c r="B1828" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1828" t="s">
         <v>19</v>
@@ -98682,42 +98685,42 @@
         <v>21</v>
       </c>
       <c r="E1828">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1828" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G1828">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1828" t="s">
         <v>43</v>
       </c>
       <c r="I1828" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1828" t="s">
         <v>23</v>
       </c>
       <c r="L1828">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1828">
-        <v>20</v>
+        <v>32.4</v>
       </c>
       <c r="O1828" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R1828" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1829" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1829" s="1">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B1829" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1829" t="s">
         <v>19</v>
@@ -98726,13 +98729,13 @@
         <v>21</v>
       </c>
       <c r="E1829">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1829" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1829">
-        <v>2960</v>
+        <v>64</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>2242</v>
       </c>
       <c r="H1829" t="s">
         <v>43</v>
@@ -98744,24 +98747,24 @@
         <v>23</v>
       </c>
       <c r="L1829">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1829">
-        <v>20</v>
+        <v>50.62</v>
       </c>
       <c r="O1829" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R1829" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1830" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1830" s="1">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B1830" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1830" t="s">
         <v>19</v>
@@ -98773,10 +98776,10 @@
         <v>3</v>
       </c>
       <c r="F1830" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1830">
-        <v>2960</v>
+        <v>66</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>2242</v>
       </c>
       <c r="H1830" t="s">
         <v>43</v>
@@ -98788,24 +98791,24 @@
         <v>23</v>
       </c>
       <c r="L1830">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1830">
-        <v>20</v>
+        <v>50.62</v>
       </c>
       <c r="O1830" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R1830" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1831" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1831" s="1">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B1831" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1831" t="s">
         <v>19</v>
@@ -98814,19 +98817,19 @@
         <v>21</v>
       </c>
       <c r="E1831">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1831" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1831">
-        <v>2431</v>
+        <v>67</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>2242</v>
       </c>
       <c r="H1831" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1831" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1831" t="s">
         <v>23</v>
@@ -98835,13 +98838,13 @@
         <v>0</v>
       </c>
       <c r="M1831">
-        <v>32.4</v>
+        <v>50.62</v>
       </c>
       <c r="O1831" t="s">
         <v>60</v>
       </c>
       <c r="R1831" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1832" spans="1:18" x14ac:dyDescent="0.45">
@@ -98858,16 +98861,16 @@
         <v>21</v>
       </c>
       <c r="E1832">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1832" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1832">
         <v>2431</v>
       </c>
       <c r="H1832" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1832" t="s">
         <v>58</v>
@@ -98879,21 +98882,24 @@
         <v>0</v>
       </c>
       <c r="M1832">
-        <v>32.4</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N1832">
+        <v>18.899999999999999</v>
       </c>
       <c r="O1832" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1832" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1833" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1833" s="1">
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="B1833" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C1833" t="s">
         <v>19</v>
@@ -98902,16 +98908,16 @@
         <v>21</v>
       </c>
       <c r="E1833">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1833" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G1833">
         <v>2431</v>
       </c>
       <c r="H1833" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1833" t="s">
         <v>58</v>
@@ -98923,21 +98929,21 @@
         <v>0</v>
       </c>
       <c r="M1833">
-        <v>32.4</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="O1833" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1833" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1834" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1834" s="1">
-        <v>45436</v>
+        <v>45432</v>
       </c>
       <c r="B1834" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1834" t="s">
         <v>19</v>
@@ -98946,19 +98952,19 @@
         <v>21</v>
       </c>
       <c r="E1834">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1834" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1834" t="s">
-        <v>2242</v>
+        <v>72</v>
+      </c>
+      <c r="G1834">
+        <v>2431</v>
       </c>
       <c r="H1834" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1834" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K1834" t="s">
         <v>23</v>
@@ -98967,21 +98973,21 @@
         <v>0</v>
       </c>
       <c r="M1834">
-        <v>50.62</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="O1834" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1834" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1835" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1835" s="1">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B1835" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1835" t="s">
         <v>19</v>
@@ -98990,10 +98996,10 @@
         <v>21</v>
       </c>
       <c r="E1835">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1835" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G1835" t="s">
         <v>2242</v>
@@ -99011,21 +99017,21 @@
         <v>0</v>
       </c>
       <c r="M1835">
-        <v>50.62</v>
+        <v>41.63</v>
       </c>
       <c r="O1835" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1835" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1836" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1836" s="1">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B1836" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1836" t="s">
         <v>19</v>
@@ -99034,10 +99040,10 @@
         <v>21</v>
       </c>
       <c r="E1836">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1836" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G1836" t="s">
         <v>2242</v>
@@ -99055,21 +99061,21 @@
         <v>0</v>
       </c>
       <c r="M1836">
-        <v>50.62</v>
+        <v>41.63</v>
       </c>
       <c r="O1836" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R1836" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1837" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1837" s="1">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B1837" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1837" t="s">
         <v>19</v>
@@ -99078,19 +99084,19 @@
         <v>21</v>
       </c>
       <c r="E1837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1837" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1837">
-        <v>2431</v>
+        <v>76</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>2242</v>
       </c>
       <c r="H1837" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1837" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1837" t="s">
         <v>23</v>
@@ -99099,24 +99105,21 @@
         <v>0</v>
       </c>
       <c r="M1837">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N1837">
-        <v>18.899999999999999</v>
+        <v>41.63</v>
       </c>
       <c r="O1837" t="s">
         <v>69</v>
       </c>
       <c r="R1837" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1838" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1838" s="1">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B1838" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1838" t="s">
         <v>19</v>
@@ -99128,16 +99131,16 @@
         <v>1</v>
       </c>
       <c r="F1838" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1838">
-        <v>2431</v>
+        <v>77</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>2242</v>
       </c>
       <c r="H1838" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I1838" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1838" t="s">
         <v>23</v>
@@ -99146,21 +99149,24 @@
         <v>0</v>
       </c>
       <c r="M1838">
-        <v>18.899999999999999</v>
+        <v>41.93</v>
+      </c>
+      <c r="N1838">
+        <v>41.93</v>
       </c>
       <c r="O1838" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R1838" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1839" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1839" s="1">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B1839" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1839" t="s">
         <v>19</v>
@@ -99172,16 +99178,16 @@
         <v>1</v>
       </c>
       <c r="F1839" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1839">
-        <v>2431</v>
+        <v>80</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>2242</v>
       </c>
       <c r="H1839" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1839" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1839" t="s">
         <v>23</v>
@@ -99190,21 +99196,21 @@
         <v>0</v>
       </c>
       <c r="M1839">
-        <v>18.899999999999999</v>
+        <v>41.93</v>
       </c>
       <c r="O1839" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R1839" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1840" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1840" s="1">
-        <v>45436</v>
+        <v>45434</v>
       </c>
       <c r="B1840" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1840" t="s">
         <v>19</v>
@@ -99216,7 +99222,7 @@
         <v>1</v>
       </c>
       <c r="F1840" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1840" t="s">
         <v>2242</v>
@@ -99234,21 +99240,21 @@
         <v>0</v>
       </c>
       <c r="M1840">
-        <v>41.63</v>
+        <v>41.93</v>
       </c>
       <c r="O1840" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R1840" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1841" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1841" s="1">
-        <v>45435</v>
+        <v>45433</v>
       </c>
       <c r="B1841" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1841" t="s">
         <v>19</v>
@@ -99257,10 +99263,10 @@
         <v>21</v>
       </c>
       <c r="E1841">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1841" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1841" t="s">
         <v>2242</v>
@@ -99278,21 +99284,21 @@
         <v>0</v>
       </c>
       <c r="M1841">
-        <v>41.63</v>
+        <v>41.93</v>
       </c>
       <c r="O1841" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R1841" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1842" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1842" s="1">
-        <v>45434</v>
+        <v>45432</v>
       </c>
       <c r="B1842" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1842" t="s">
         <v>19</v>
@@ -99301,10 +99307,10 @@
         <v>21</v>
       </c>
       <c r="E1842">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1842" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G1842" t="s">
         <v>2242</v>
@@ -99322,21 +99328,21 @@
         <v>0</v>
       </c>
       <c r="M1842">
-        <v>41.63</v>
+        <v>41.93</v>
       </c>
       <c r="O1842" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R1842" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1843" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1843" s="1">
-        <v>45436</v>
+        <v>45432</v>
       </c>
       <c r="B1843" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1843" t="s">
         <v>19</v>
@@ -99348,16 +99354,16 @@
         <v>1</v>
       </c>
       <c r="F1843" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1843" t="s">
-        <v>2242</v>
+        <v>84</v>
+      </c>
+      <c r="G1843">
+        <v>2651</v>
       </c>
       <c r="H1843" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1843" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K1843" t="s">
         <v>23</v>
@@ -99366,89 +99372,95 @@
         <v>0</v>
       </c>
       <c r="M1843">
-        <v>41.93</v>
+        <v>21.4</v>
       </c>
       <c r="N1843">
-        <v>41.93</v>
+        <v>21.4</v>
       </c>
       <c r="O1843" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1843" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1844" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1844" s="1">
-        <v>45435</v>
+        <v>45460</v>
       </c>
       <c r="B1844" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1844" t="s">
-        <v>19</v>
+        <v>2123</v>
       </c>
       <c r="D1844">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1844">
         <v>1</v>
       </c>
       <c r="F1844" t="s">
-        <v>80</v>
+        <v>2345</v>
       </c>
       <c r="G1844" t="s">
-        <v>2242</v>
+        <v>22</v>
       </c>
       <c r="H1844" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1844" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K1844" t="s">
         <v>23</v>
       </c>
-      <c r="L1844">
-        <v>0</v>
+      <c r="L1844" t="s">
+        <v>22</v>
       </c>
       <c r="M1844">
-        <v>41.93</v>
+        <v>1</v>
+      </c>
+      <c r="N1844">
+        <v>1</v>
       </c>
       <c r="O1844" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="R1844" t="s">
-        <v>79</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1845" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1845" s="1">
-        <v>45434</v>
+        <v>45464</v>
       </c>
       <c r="B1845" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1845" t="s">
-        <v>19</v>
+        <v>2123</v>
       </c>
       <c r="D1845">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1845">
         <v>1</v>
       </c>
       <c r="F1845" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1845" t="s">
-        <v>2242</v>
+        <v>2346</v>
+      </c>
+      <c r="G1845">
+        <v>2938</v>
       </c>
       <c r="H1845" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1845" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>172</v>
       </c>
       <c r="K1845" t="s">
         <v>23</v>
@@ -99457,42 +99469,45 @@
         <v>0</v>
       </c>
       <c r="M1845">
-        <v>41.93</v>
+        <v>19.5</v>
       </c>
       <c r="O1845" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="R1845" t="s">
-        <v>79</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1846" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1846" s="1">
-        <v>45433</v>
+        <v>45464</v>
       </c>
       <c r="B1846" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1846" t="s">
-        <v>19</v>
+        <v>2123</v>
       </c>
       <c r="D1846">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1846">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1846" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1846" t="s">
-        <v>2242</v>
+        <v>2347</v>
+      </c>
+      <c r="G1846">
+        <v>2938</v>
       </c>
       <c r="H1846" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1846" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>172</v>
       </c>
       <c r="K1846" t="s">
         <v>23</v>
@@ -99501,42 +99516,45 @@
         <v>0</v>
       </c>
       <c r="M1846">
-        <v>41.93</v>
+        <v>19.5</v>
       </c>
       <c r="O1846" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="R1846" t="s">
-        <v>79</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1847" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1847" s="1">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="B1847" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1847" t="s">
-        <v>19</v>
+        <v>2123</v>
       </c>
       <c r="D1847">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1847">
         <v>1</v>
       </c>
       <c r="F1847" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1847" t="s">
-        <v>2242</v>
+        <v>2348</v>
+      </c>
+      <c r="G1847">
+        <v>2937</v>
       </c>
       <c r="H1847" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1847" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>108</v>
       </c>
       <c r="K1847" t="s">
         <v>23</v>
@@ -99545,43 +99563,46 @@
         <v>0</v>
       </c>
       <c r="M1847">
-        <v>41.93</v>
+        <v>14</v>
       </c>
       <c r="O1847" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="R1847" t="s">
-        <v>79</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1848" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1848" s="1">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="B1848" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1848" t="s">
-        <v>19</v>
+        <v>2123</v>
       </c>
       <c r="D1848">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E1848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1848" t="s">
-        <v>84</v>
+        <v>2349</v>
       </c>
       <c r="G1848">
-        <v>2651</v>
+        <v>2937</v>
       </c>
       <c r="H1848" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1848" t="s">
         <v>85</v>
       </c>
+      <c r="J1848" t="s">
+        <v>108</v>
+      </c>
       <c r="K1848" t="s">
         <v>23</v>
       </c>
@@ -99589,24 +99610,21 @@
         <v>0</v>
       </c>
       <c r="M1848">
-        <v>21.4</v>
-      </c>
-      <c r="N1848">
-        <v>21.4</v>
+        <v>14</v>
       </c>
       <c r="O1848" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R1848" t="s">
-        <v>87</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1849" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1849" s="1">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B1849" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1849" t="s">
         <v>2123</v>
@@ -99615,45 +99633,45 @@
         <v>25</v>
       </c>
       <c r="E1849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1849" t="s">
-        <v>2345</v>
-      </c>
-      <c r="G1849" t="s">
-        <v>22</v>
+        <v>2350</v>
+      </c>
+      <c r="G1849">
+        <v>2651</v>
       </c>
       <c r="H1849" t="s">
         <v>21</v>
       </c>
       <c r="I1849" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>86</v>
       </c>
       <c r="K1849" t="s">
         <v>23</v>
       </c>
-      <c r="L1849" t="s">
-        <v>22</v>
+      <c r="L1849">
+        <v>0</v>
       </c>
       <c r="M1849">
-        <v>1</v>
-      </c>
-      <c r="N1849">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O1849" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1849" t="s">
-        <v>2235</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1850" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1850" s="1">
-        <v>45464</v>
+        <v>45462</v>
       </c>
       <c r="B1850" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1850" t="s">
         <v>2123</v>
@@ -99662,22 +99680,22 @@
         <v>25</v>
       </c>
       <c r="E1850">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1850" t="s">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="G1850">
-        <v>2938</v>
+        <v>2651</v>
       </c>
       <c r="H1850" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1850" t="s">
         <v>85</v>
       </c>
       <c r="J1850" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="K1850" t="s">
         <v>23</v>
@@ -99686,21 +99704,21 @@
         <v>0</v>
       </c>
       <c r="M1850">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="O1850" t="s">
         <v>24</v>
       </c>
       <c r="R1850" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1851" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1851" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="B1851" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1851" t="s">
         <v>2123</v>
@@ -99709,22 +99727,22 @@
         <v>25</v>
       </c>
       <c r="E1851">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1851" t="s">
-        <v>2347</v>
+        <v>2352</v>
       </c>
       <c r="G1851">
-        <v>2938</v>
+        <v>2651</v>
       </c>
       <c r="H1851" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I1851" t="s">
         <v>85</v>
       </c>
       <c r="J1851" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="K1851" t="s">
         <v>23</v>
@@ -99733,21 +99751,21 @@
         <v>0</v>
       </c>
       <c r="M1851">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="O1851" t="s">
         <v>24</v>
       </c>
       <c r="R1851" t="s">
-        <v>2381</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1852" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1852" s="1">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="B1852" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1852" t="s">
         <v>2123</v>
@@ -99756,22 +99774,22 @@
         <v>25</v>
       </c>
       <c r="E1852">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1852" t="s">
-        <v>2348</v>
+        <v>2353</v>
       </c>
       <c r="G1852">
-        <v>2937</v>
+        <v>2651</v>
       </c>
       <c r="H1852" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I1852" t="s">
         <v>85</v>
       </c>
       <c r="J1852" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="K1852" t="s">
         <v>23</v>
@@ -99780,21 +99798,21 @@
         <v>0</v>
       </c>
       <c r="M1852">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O1852" t="s">
         <v>24</v>
       </c>
       <c r="R1852" t="s">
-        <v>2382</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1853" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1853" s="1">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B1853" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1853" t="s">
         <v>2123</v>
@@ -99806,10 +99824,10 @@
         <v>2</v>
       </c>
       <c r="F1853" t="s">
-        <v>2349</v>
+        <v>2354</v>
       </c>
       <c r="G1853">
-        <v>2937</v>
+        <v>2651</v>
       </c>
       <c r="H1853" t="s">
         <v>32</v>
@@ -99818,7 +99836,7 @@
         <v>85</v>
       </c>
       <c r="J1853" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="K1853" t="s">
         <v>23</v>
@@ -99827,21 +99845,21 @@
         <v>0</v>
       </c>
       <c r="M1853">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O1853" t="s">
         <v>24</v>
       </c>
       <c r="R1853" t="s">
-        <v>2382</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1854" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1854" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B1854" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1854" t="s">
         <v>2123</v>
@@ -99853,42 +99871,42 @@
         <v>2</v>
       </c>
       <c r="F1854" t="s">
-        <v>2350</v>
-      </c>
-      <c r="G1854">
-        <v>2651</v>
+        <v>2355</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>22</v>
       </c>
       <c r="H1854" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I1854" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1854" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K1854" t="s">
         <v>23</v>
       </c>
-      <c r="L1854">
-        <v>0</v>
+      <c r="L1854" t="s">
+        <v>22</v>
       </c>
       <c r="M1854">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="N1854">
+        <v>5</v>
       </c>
       <c r="O1854" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1854" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1855" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1855" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B1855" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1855" t="s">
         <v>2123</v>
@@ -99897,45 +99915,42 @@
         <v>25</v>
       </c>
       <c r="E1855">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1855" t="s">
-        <v>2351</v>
-      </c>
-      <c r="G1855">
-        <v>2651</v>
+        <v>2356</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>22</v>
       </c>
       <c r="H1855" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1855" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1855" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K1855" t="s">
         <v>23</v>
       </c>
-      <c r="L1855">
-        <v>0</v>
+      <c r="L1855" t="s">
+        <v>22</v>
       </c>
       <c r="M1855">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O1855" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1855" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1856" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1856" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B1856" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1856" t="s">
         <v>2123</v>
@@ -99944,45 +99959,42 @@
         <v>25</v>
       </c>
       <c r="E1856">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1856" t="s">
-        <v>2352</v>
-      </c>
-      <c r="G1856">
-        <v>2651</v>
+        <v>2357</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>22</v>
       </c>
       <c r="H1856" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1856" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1856" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K1856" t="s">
         <v>23</v>
       </c>
-      <c r="L1856">
-        <v>0</v>
+      <c r="L1856" t="s">
+        <v>22</v>
       </c>
       <c r="M1856">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O1856" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1856" t="s">
-        <v>1412</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1857" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1857" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B1857" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1857" t="s">
         <v>2123</v>
@@ -99994,42 +100006,39 @@
         <v>3</v>
       </c>
       <c r="F1857" t="s">
-        <v>2353</v>
-      </c>
-      <c r="G1857">
-        <v>2651</v>
+        <v>2358</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>22</v>
       </c>
       <c r="H1857" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1857" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1857" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K1857" t="s">
         <v>23</v>
       </c>
-      <c r="L1857">
-        <v>0</v>
+      <c r="L1857" t="s">
+        <v>22</v>
       </c>
       <c r="M1857">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O1857" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1857" t="s">
-        <v>1412</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1858" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1858" s="1">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B1858" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1858" t="s">
         <v>2123</v>
@@ -100038,37 +100047,37 @@
         <v>25</v>
       </c>
       <c r="E1858">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1858" t="s">
-        <v>2354</v>
-      </c>
-      <c r="G1858">
-        <v>2651</v>
+        <v>2359</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>22</v>
       </c>
       <c r="H1858" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I1858" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1858" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K1858" t="s">
         <v>23</v>
       </c>
-      <c r="L1858">
-        <v>0</v>
+      <c r="L1858" t="s">
+        <v>22</v>
       </c>
       <c r="M1858">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N1858">
+        <v>8</v>
       </c>
       <c r="O1858" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1858" t="s">
-        <v>1412</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1859" spans="1:18" x14ac:dyDescent="0.45">
@@ -100088,13 +100097,13 @@
         <v>2</v>
       </c>
       <c r="F1859" t="s">
-        <v>2355</v>
+        <v>2360</v>
       </c>
       <c r="G1859" t="s">
         <v>22</v>
       </c>
       <c r="H1859" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1859" t="s">
         <v>22</v>
@@ -100106,24 +100115,21 @@
         <v>22</v>
       </c>
       <c r="M1859">
-        <v>5</v>
-      </c>
-      <c r="N1859">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O1859" t="s">
         <v>33</v>
       </c>
       <c r="R1859" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1860" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1860" s="1">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1860" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1860" t="s">
         <v>2123</v>
@@ -100132,10 +100138,10 @@
         <v>25</v>
       </c>
       <c r="E1860">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1860" t="s">
-        <v>2356</v>
+        <v>2361</v>
       </c>
       <c r="G1860" t="s">
         <v>22</v>
@@ -100153,21 +100159,21 @@
         <v>22</v>
       </c>
       <c r="M1860">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O1860" t="s">
         <v>33</v>
       </c>
       <c r="R1860" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1861" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1861" s="1">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B1861" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1861" t="s">
         <v>2123</v>
@@ -100176,10 +100182,10 @@
         <v>25</v>
       </c>
       <c r="E1861">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1861" t="s">
-        <v>2357</v>
+        <v>2362</v>
       </c>
       <c r="G1861" t="s">
         <v>22</v>
@@ -100197,21 +100203,21 @@
         <v>22</v>
       </c>
       <c r="M1861">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O1861" t="s">
         <v>33</v>
       </c>
       <c r="R1861" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1862" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1862" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B1862" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1862" t="s">
         <v>2123</v>
@@ -100220,42 +100226,45 @@
         <v>25</v>
       </c>
       <c r="E1862">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1862" t="s">
-        <v>2358</v>
+        <v>2363</v>
       </c>
       <c r="G1862" t="s">
-        <v>22</v>
+        <v>2242</v>
       </c>
       <c r="H1862" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1862" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>2380</v>
       </c>
       <c r="K1862" t="s">
         <v>23</v>
       </c>
-      <c r="L1862" t="s">
-        <v>22</v>
+      <c r="L1862">
+        <v>0</v>
       </c>
       <c r="M1862">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="O1862" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R1862" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1863" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1863" s="1">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1863" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1863" t="s">
         <v>2123</v>
@@ -100267,42 +100276,42 @@
         <v>1</v>
       </c>
       <c r="F1863" t="s">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="G1863" t="s">
-        <v>22</v>
+        <v>2242</v>
       </c>
       <c r="H1863" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I1863" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>2380</v>
       </c>
       <c r="K1863" t="s">
         <v>23</v>
       </c>
-      <c r="L1863" t="s">
-        <v>22</v>
+      <c r="L1863">
+        <v>0</v>
       </c>
       <c r="M1863">
-        <v>8</v>
-      </c>
-      <c r="N1863">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="O1863" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R1863" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1864" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1864" s="1">
-        <v>45464</v>
+        <v>45462</v>
       </c>
       <c r="B1864" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1864" t="s">
         <v>2123</v>
@@ -100311,42 +100320,45 @@
         <v>25</v>
       </c>
       <c r="E1864">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1864" t="s">
-        <v>2360</v>
+        <v>2365</v>
       </c>
       <c r="G1864" t="s">
-        <v>22</v>
+        <v>2242</v>
       </c>
       <c r="H1864" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1864" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>2380</v>
       </c>
       <c r="K1864" t="s">
         <v>23</v>
       </c>
-      <c r="L1864" t="s">
-        <v>22</v>
+      <c r="L1864">
+        <v>0</v>
       </c>
       <c r="M1864">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="O1864" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R1864" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1865" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1865" s="1">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="B1865" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1865" t="s">
         <v>2123</v>
@@ -100358,31 +100370,34 @@
         <v>2</v>
       </c>
       <c r="F1865" t="s">
-        <v>2361</v>
+        <v>2366</v>
       </c>
       <c r="G1865" t="s">
-        <v>22</v>
+        <v>2242</v>
       </c>
       <c r="H1865" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I1865" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>2380</v>
       </c>
       <c r="K1865" t="s">
         <v>23</v>
       </c>
-      <c r="L1865" t="s">
-        <v>22</v>
+      <c r="L1865">
+        <v>0</v>
       </c>
       <c r="M1865">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="O1865" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R1865" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1866" spans="1:18" x14ac:dyDescent="0.45">
@@ -100399,42 +100414,48 @@
         <v>25</v>
       </c>
       <c r="E1866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1866" t="s">
-        <v>2362</v>
+        <v>2367</v>
       </c>
       <c r="G1866" t="s">
-        <v>22</v>
+        <v>2242</v>
       </c>
       <c r="H1866" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I1866" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>2380</v>
       </c>
       <c r="K1866" t="s">
         <v>23</v>
       </c>
-      <c r="L1866" t="s">
-        <v>22</v>
+      <c r="L1866">
+        <v>0</v>
       </c>
       <c r="M1866">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="N1866">
+        <v>51</v>
       </c>
       <c r="O1866" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R1866" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1867" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1867" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="B1867" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1867" t="s">
         <v>2123</v>
@@ -100443,16 +100464,16 @@
         <v>25</v>
       </c>
       <c r="E1867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1867" t="s">
-        <v>2363</v>
+        <v>2368</v>
       </c>
       <c r="G1867" t="s">
         <v>2242</v>
       </c>
       <c r="H1867" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I1867" t="s">
         <v>44</v>
@@ -100467,21 +100488,24 @@
         <v>0</v>
       </c>
       <c r="M1867">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="N1867">
+        <v>51</v>
       </c>
       <c r="O1867" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1867" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1868" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1868" s="1">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="B1868" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1868" t="s">
         <v>2123</v>
@@ -100493,7 +100517,7 @@
         <v>1</v>
       </c>
       <c r="F1868" t="s">
-        <v>2364</v>
+        <v>2369</v>
       </c>
       <c r="G1868" t="s">
         <v>2242</v>
@@ -100514,21 +100538,21 @@
         <v>0</v>
       </c>
       <c r="M1868">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1868" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1868" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1869" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1869" s="1">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="B1869" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1869" t="s">
         <v>2123</v>
@@ -100540,7 +100564,7 @@
         <v>1</v>
       </c>
       <c r="F1869" t="s">
-        <v>2365</v>
+        <v>2370</v>
       </c>
       <c r="G1869" t="s">
         <v>2242</v>
@@ -100561,21 +100585,21 @@
         <v>0</v>
       </c>
       <c r="M1869">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1869" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R1869" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1870" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1870" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B1870" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1870" t="s">
         <v>2123</v>
@@ -100584,22 +100608,22 @@
         <v>25</v>
       </c>
       <c r="E1870">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1870" t="s">
-        <v>2366</v>
-      </c>
-      <c r="G1870" t="s">
-        <v>2242</v>
+        <v>2371</v>
+      </c>
+      <c r="G1870">
+        <v>2431</v>
       </c>
       <c r="H1870" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I1870" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J1870" t="s">
-        <v>2380</v>
+        <v>59</v>
       </c>
       <c r="K1870" t="s">
         <v>23</v>
@@ -100608,21 +100632,21 @@
         <v>0</v>
       </c>
       <c r="M1870">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="O1870" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="R1870" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1871" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1871" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B1871" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1871" t="s">
         <v>2123</v>
@@ -100634,45 +100658,42 @@
         <v>1</v>
       </c>
       <c r="F1871" t="s">
-        <v>2367</v>
-      </c>
-      <c r="G1871" t="s">
-        <v>2242</v>
+        <v>2372</v>
+      </c>
+      <c r="G1871">
+        <v>2960</v>
       </c>
       <c r="H1871" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I1871" t="s">
         <v>44</v>
       </c>
       <c r="J1871" t="s">
-        <v>2380</v>
+        <v>45</v>
       </c>
       <c r="K1871" t="s">
         <v>23</v>
       </c>
       <c r="L1871">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1871">
-        <v>51</v>
-      </c>
-      <c r="N1871">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="O1871" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R1871" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1872" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1872" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B1872" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C1872" t="s">
         <v>2123</v>
@@ -100681,48 +100702,45 @@
         <v>25</v>
       </c>
       <c r="E1872">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1872" t="s">
-        <v>2368</v>
-      </c>
-      <c r="G1872" t="s">
-        <v>2242</v>
+        <v>2373</v>
+      </c>
+      <c r="G1872">
+        <v>2960</v>
       </c>
       <c r="H1872" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1872" t="s">
         <v>44</v>
       </c>
       <c r="J1872" t="s">
-        <v>2380</v>
+        <v>45</v>
       </c>
       <c r="K1872" t="s">
         <v>23</v>
       </c>
       <c r="L1872">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1872">
-        <v>51</v>
-      </c>
-      <c r="N1872">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="O1872" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R1872" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1873" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1873" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B1873" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1873" t="s">
         <v>2123</v>
@@ -100734,42 +100752,42 @@
         <v>1</v>
       </c>
       <c r="F1873" t="s">
-        <v>2369</v>
-      </c>
-      <c r="G1873" t="s">
-        <v>2242</v>
+        <v>2374</v>
+      </c>
+      <c r="G1873">
+        <v>2960</v>
       </c>
       <c r="H1873" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1873" t="s">
         <v>44</v>
       </c>
       <c r="J1873" t="s">
-        <v>2380</v>
+        <v>45</v>
       </c>
       <c r="K1873" t="s">
         <v>23</v>
       </c>
       <c r="L1873">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1873">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="O1873" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R1873" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1874" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1874" s="1">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B1874" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C1874" t="s">
         <v>2123</v>
@@ -100778,45 +100796,45 @@
         <v>25</v>
       </c>
       <c r="E1874">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1874" t="s">
-        <v>2370</v>
-      </c>
-      <c r="G1874" t="s">
-        <v>2242</v>
+        <v>2375</v>
+      </c>
+      <c r="G1874">
+        <v>2960</v>
       </c>
       <c r="H1874" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I1874" t="s">
         <v>44</v>
       </c>
       <c r="J1874" t="s">
-        <v>2380</v>
+        <v>45</v>
       </c>
       <c r="K1874" t="s">
         <v>23</v>
       </c>
       <c r="L1874">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1874">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="O1874" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R1874" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1875" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1875" s="1">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B1875" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1875" t="s">
         <v>2123</v>
@@ -100825,45 +100843,45 @@
         <v>25</v>
       </c>
       <c r="E1875">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1875" t="s">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="G1875">
-        <v>2431</v>
+        <v>2960</v>
       </c>
       <c r="H1875" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I1875" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J1875" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K1875" t="s">
         <v>23</v>
       </c>
       <c r="L1875">
-        <v>0</v>
+        <v>156.32</v>
       </c>
       <c r="M1875">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O1875" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1875" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1876" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1876" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="B1876" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1876" t="s">
         <v>2123</v>
@@ -100875,42 +100893,45 @@
         <v>1</v>
       </c>
       <c r="F1876" t="s">
-        <v>2372</v>
+        <v>2377</v>
       </c>
       <c r="G1876">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1876" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1876" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J1876" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K1876" t="s">
         <v>23</v>
       </c>
       <c r="L1876">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1876">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="N1876">
+        <v>30</v>
       </c>
       <c r="O1876" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R1876" t="s">
-        <v>2389</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1877" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1877" s="1">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="B1877" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1877" t="s">
         <v>2123</v>
@@ -100922,42 +100943,42 @@
         <v>1</v>
       </c>
       <c r="F1877" t="s">
-        <v>2373</v>
+        <v>2378</v>
       </c>
       <c r="G1877">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1877" t="s">
         <v>43</v>
       </c>
       <c r="I1877" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J1877" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K1877" t="s">
         <v>23</v>
       </c>
       <c r="L1877">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1877">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O1877" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R1877" t="s">
-        <v>2389</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1878" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1878" s="1">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="B1878" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1878" t="s">
         <v>2123</v>
@@ -100969,133 +100990,136 @@
         <v>1</v>
       </c>
       <c r="F1878" t="s">
-        <v>2374</v>
+        <v>2379</v>
       </c>
       <c r="G1878">
-        <v>2960</v>
+        <v>2431</v>
       </c>
       <c r="H1878" t="s">
         <v>43</v>
       </c>
       <c r="I1878" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J1878" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K1878" t="s">
         <v>23</v>
       </c>
       <c r="L1878">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1878">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O1878" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R1878" t="s">
-        <v>2389</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1879" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1879" s="1">
-        <v>45461</v>
+        <v>45458</v>
       </c>
       <c r="B1879" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C1879" t="s">
         <v>2123</v>
       </c>
       <c r="D1879">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1879">
         <v>2</v>
       </c>
       <c r="F1879" t="s">
-        <v>2375</v>
-      </c>
-      <c r="G1879">
-        <v>2960</v>
+        <v>2390</v>
       </c>
       <c r="H1879" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1879" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J1879" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K1879" t="s">
         <v>23</v>
       </c>
-      <c r="L1879">
-        <v>156.32</v>
+      <c r="L1879" t="s">
+        <v>22</v>
       </c>
       <c r="M1879">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N1879">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O1879" t="s">
         <v>24</v>
       </c>
-      <c r="O1879" t="s">
-        <v>46</v>
-      </c>
       <c r="R1879" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1880" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1880" s="1">
-        <v>45460</v>
+        <v>45458</v>
       </c>
       <c r="B1880" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C1880" t="s">
         <v>2123</v>
       </c>
       <c r="D1880">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1880">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1880" t="s">
-        <v>2376</v>
-      </c>
-      <c r="G1880">
-        <v>2960</v>
+        <v>2392</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>108</v>
       </c>
       <c r="H1880" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1880" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1880" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="J1880">
+        <v>2937</v>
       </c>
       <c r="K1880" t="s">
         <v>23</v>
       </c>
       <c r="L1880">
-        <v>156.32</v>
+        <v>0</v>
       </c>
       <c r="M1880">
+        <v>9</v>
+      </c>
+      <c r="N1880">
+        <v>9</v>
+      </c>
+      <c r="O1880" t="s">
         <v>24</v>
       </c>
-      <c r="O1880" t="s">
-        <v>46</v>
-      </c>
       <c r="R1880" t="s">
-        <v>2389</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1881" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1881" s="1">
-        <v>45461</v>
+        <v>45454</v>
       </c>
       <c r="B1881" t="s">
         <v>18</v>
@@ -101104,75 +101128,69 @@
         <v>2123</v>
       </c>
       <c r="D1881">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1881">
         <v>1</v>
       </c>
       <c r="F1881" t="s">
-        <v>2377</v>
-      </c>
-      <c r="G1881">
-        <v>2431</v>
+        <v>2230</v>
       </c>
       <c r="H1881" t="s">
         <v>57</v>
       </c>
-      <c r="I1881" t="s">
-        <v>58</v>
-      </c>
       <c r="J1881" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K1881" t="s">
         <v>23</v>
       </c>
-      <c r="L1881">
-        <v>0</v>
+      <c r="L1881" t="s">
+        <v>22</v>
       </c>
       <c r="M1881">
-        <v>30</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="N1881">
-        <v>30</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O1881" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R1881" t="s">
-        <v>2239</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1882" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1882" s="1">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B1882" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1882" t="s">
         <v>2123</v>
       </c>
       <c r="D1882">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1882">
         <v>1</v>
       </c>
       <c r="F1882" t="s">
-        <v>2378</v>
-      </c>
-      <c r="G1882">
-        <v>2431</v>
+        <v>2246</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>59</v>
       </c>
       <c r="H1882" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1882" t="s">
         <v>58</v>
       </c>
-      <c r="J1882" t="s">
-        <v>59</v>
+      <c r="J1882">
+        <v>2431</v>
       </c>
       <c r="K1882" t="s">
         <v>23</v>
@@ -101181,68 +101199,74 @@
         <v>0</v>
       </c>
       <c r="M1882">
-        <v>30</v>
+        <v>38.22</v>
+      </c>
+      <c r="N1882">
+        <v>38.22</v>
       </c>
       <c r="O1882" t="s">
         <v>33</v>
       </c>
       <c r="R1882" t="s">
-        <v>2239</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1883" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1883" s="1">
-        <v>45460</v>
+        <v>45455</v>
       </c>
       <c r="B1883" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1883" t="s">
         <v>2123</v>
       </c>
       <c r="D1883">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1883">
         <v>1</v>
       </c>
       <c r="F1883" t="s">
-        <v>2379</v>
-      </c>
-      <c r="G1883">
-        <v>2431</v>
+        <v>2256</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>2393</v>
       </c>
       <c r="H1883" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I1883" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1883" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="J1883">
+        <v>1090</v>
       </c>
       <c r="K1883" t="s">
         <v>23</v>
       </c>
       <c r="L1883">
-        <v>0</v>
+        <v>116.78</v>
       </c>
       <c r="M1883">
-        <v>30</v>
+        <v>29.1</v>
+      </c>
+      <c r="N1883">
+        <v>29.1</v>
       </c>
       <c r="O1883" t="s">
         <v>33</v>
       </c>
       <c r="R1883" t="s">
-        <v>2239</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1884" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1884" s="1">
-        <v>45458</v>
+        <v>45453</v>
       </c>
       <c r="B1884" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="C1884" t="s">
         <v>2123</v>
@@ -101251,45 +101275,48 @@
         <v>24</v>
       </c>
       <c r="E1884">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1884" t="s">
-        <v>2390</v>
+        <v>2223</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>59</v>
       </c>
       <c r="H1884" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1884" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1884" t="s">
-        <v>22</v>
+        <v>58</v>
+      </c>
+      <c r="J1884">
+        <v>2431</v>
       </c>
       <c r="K1884" t="s">
         <v>23</v>
       </c>
-      <c r="L1884" t="s">
-        <v>22</v>
+      <c r="L1884">
+        <v>0</v>
       </c>
       <c r="M1884">
-        <v>8.3000000000000007</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="N1884">
-        <v>8.3000000000000007</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="O1884" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R1884" t="s">
-        <v>2391</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1885" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1885" s="1">
-        <v>45458</v>
+        <v>45456</v>
       </c>
       <c r="B1885" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C1885" t="s">
         <v>2123</v>
@@ -101301,34 +101328,34 @@
         <v>1</v>
       </c>
       <c r="F1885" t="s">
-        <v>2392</v>
+        <v>2233</v>
       </c>
       <c r="G1885" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H1885" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1885" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="J1885">
-        <v>2937</v>
+        <v>2776</v>
       </c>
       <c r="K1885" t="s">
         <v>23</v>
       </c>
       <c r="L1885">
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="M1885">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N1885">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O1885" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R1885" t="s">
         <v>1412</v>
@@ -101348,34 +101375,34 @@
         <v>24</v>
       </c>
       <c r="E1886">
+        <v>2</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1886" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1886" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1886" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1886">
         <v>1</v>
       </c>
-      <c r="F1886" t="s">
-        <v>2230</v>
-      </c>
-      <c r="H1886" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1886" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1886" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1886" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1886">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="N1886">
-        <v>9.6300000000000008</v>
-      </c>
       <c r="O1886" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R1886" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1887" spans="1:18" x14ac:dyDescent="0.45">
@@ -101395,19 +101422,19 @@
         <v>1</v>
       </c>
       <c r="F1887" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="G1887" t="s">
-        <v>59</v>
+        <v>2380</v>
       </c>
       <c r="H1887" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1887" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1887">
-        <v>2431</v>
+        <v>44</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>2242</v>
       </c>
       <c r="K1887" t="s">
         <v>23</v>
@@ -101416,24 +101443,21 @@
         <v>0</v>
       </c>
       <c r="M1887">
-        <v>38.22</v>
-      </c>
-      <c r="N1887">
-        <v>38.22</v>
+        <v>50.62</v>
       </c>
       <c r="O1887" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R1887" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1888" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1888" s="1">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1888" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C1888" t="s">
         <v>2123</v>
@@ -101445,37 +101469,37 @@
         <v>1</v>
       </c>
       <c r="F1888" t="s">
-        <v>2256</v>
+        <v>2248</v>
       </c>
       <c r="G1888" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="H1888" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1888" t="s">
-        <v>44</v>
+        <v>2249</v>
       </c>
       <c r="J1888">
-        <v>1090</v>
+        <v>2938</v>
       </c>
       <c r="K1888" t="s">
-        <v>23</v>
+        <v>2250</v>
       </c>
       <c r="L1888">
-        <v>116.78</v>
+        <v>2.38</v>
       </c>
       <c r="M1888">
-        <v>29.1</v>
+        <v>2.38</v>
       </c>
       <c r="N1888">
-        <v>29.1</v>
+        <v>2.38</v>
       </c>
       <c r="O1888" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R1888" t="s">
-        <v>2257</v>
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
